--- a/市場_2025改修/詳細設計_2025/4_詳細設計書(徴収簿).xlsx
+++ b/市場_2025改修/詳細設計_2025/4_詳細設計書(徴収簿).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F51D06-31E3-4CCF-A474-1D534387E0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF2534-0D0E-4233-8223-1AFFE3B40AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5382582-6CE6-4D26-BB83-68802CC4ED52}"/>
+    <workbookView xWindow="1635" yWindow="810" windowWidth="22095" windowHeight="14385" firstSheet="4" activeTab="12" xr2:uid="{C5382582-6CE6-4D26-BB83-68802CC4ED52}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="徴収簿電気" sheetId="175" r:id="rId10"/>
     <sheet name="電気YYYYMM " sheetId="182" r:id="rId11"/>
     <sheet name="徴収簿売上高割" sheetId="184" r:id="rId12"/>
+    <sheet name="口座" sheetId="185" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'施設YYYYMM '!$A$1:$P$28</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="302">
   <si>
     <t>作成者</t>
   </si>
@@ -2604,6 +2605,37 @@
     <t>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>_口座</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座を設定</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金融機関</t>
+    <rPh sb="0" eb="2">
+      <t>キンユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナントコード</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -2616,7 +2648,7 @@
     <numFmt numFmtId="178" formatCode="@&quot;頁&quot;"/>
     <numFmt numFmtId="179" formatCode="@&quot;件&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -2802,6 +2834,28 @@
       <name val="MS UI Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3460,7 +3514,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3880,12 +3934,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3895,20 +4016,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3916,29 +4040,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3955,41 +4094,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3998,6 +4113,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4011,6 +4127,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4019,7 +4144,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4047,6 +4171,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4056,14 +4189,74 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4071,12 +4264,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4086,68 +4273,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4156,64 +4292,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4353,23 +4459,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>146834</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137641</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171448</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395C5C3A-A947-5E6C-262B-379A8567C0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB89614-765A-4133-A0E1-EF374B94E47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4385,8 +4491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="809625"/>
-          <a:ext cx="6433334" cy="3776191"/>
+          <a:off x="38100" y="857250"/>
+          <a:ext cx="7181848" cy="3590924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,6 +6154,390 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297046</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FC2E2D-2D8D-9601-E5A7-BEBCE58FD866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="3924300"/>
+          <a:ext cx="12689071" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2E8B3A-B2F2-95EB-4EE7-0FB301AB74F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="600075" y="295275"/>
+          <a:ext cx="1038225" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFEFF74-3A67-6DD8-B366-DC7CCED26E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5591175" y="257175"/>
+          <a:ext cx="6019800" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600165CF-E1ED-3910-6303-985BC8C76921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4562475" y="342900"/>
+          <a:ext cx="5705475" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A036E2-FD0A-8851-3D39-175862F71FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2771775" y="295275"/>
+          <a:ext cx="85725" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3216A8C-11EC-7314-F392-196782801657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1476375" y="219075"/>
+          <a:ext cx="1933575" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83F52CB-0DD2-7E80-B0AE-79C697A6A719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="5200650"/>
+          <a:ext cx="3543300" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出力順</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6316,7 +6806,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6349,50 +6839,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="171" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="158"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="173"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -6411,23 +6901,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="150"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -6437,46 +6927,46 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151" t="s">
+      <c r="G15" s="168"/>
+      <c r="H15" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
       <c r="N17" s="7" t="s">
         <v>26</v>
       </c>
@@ -6506,12 +6996,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -6520,6 +7004,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6534,7 +7024,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A3" sqref="A3:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6949,8 +7439,8 @@
   </sheetPr>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6977,25 +7467,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="219"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222" t="s">
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="241" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="220"/>
-      <c r="K1" s="221"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -7005,27 +7495,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="224" t="s">
+      <c r="D2" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226" t="s">
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="245" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="244"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -7033,46 +7523,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="227"/>
-      <c r="P2" s="225"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="244"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A4" s="230"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="237"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="256"/>
     </row>
     <row r="5" spans="1:20" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -7113,10 +7603,10 @@
       <c r="K6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="244" t="s">
+      <c r="L6" s="264" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="245"/>
+      <c r="M6" s="265"/>
       <c r="N6" s="95" t="s">
         <v>114</v>
       </c>
@@ -7156,8 +7646,8 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="255"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="277"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -7192,8 +7682,8 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="253"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="275"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -7224,8 +7714,8 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="253"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="275"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -7260,8 +7750,8 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="215"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="237"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -7292,8 +7782,8 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="215"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="237"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -7328,8 +7818,8 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="215"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="237"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -7360,8 +7850,8 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="215"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="237"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -7392,8 +7882,8 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="215"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -7424,8 +7914,8 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="215"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="237"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -7456,8 +7946,8 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="215"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="237"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -7520,8 +8010,8 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="215"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="237"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -7552,8 +8042,8 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="215"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="237"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -7584,8 +8074,8 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="105"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="215"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="237"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -7616,8 +8106,8 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="105"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="215"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="237"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -7648,8 +8138,8 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="105"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="215"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="237"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -7680,8 +8170,8 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="105"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="215"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="237"/>
       <c r="N23" s="109"/>
       <c r="O23" s="105"/>
       <c r="P23" s="110"/>
@@ -7712,8 +8202,8 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="215"/>
+      <c r="L24" s="236"/>
+      <c r="M24" s="237"/>
       <c r="N24" s="109"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -7744,8 +8234,8 @@
       <c r="I25" s="106"/>
       <c r="J25" s="105"/>
       <c r="K25" s="105"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="215"/>
+      <c r="L25" s="236"/>
+      <c r="M25" s="237"/>
       <c r="N25" s="109"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -7778,8 +8268,8 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
-      <c r="L26" s="216"/>
-      <c r="M26" s="216"/>
+      <c r="L26" s="261"/>
+      <c r="M26" s="261"/>
       <c r="N26" s="105"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -7810,8 +8300,8 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
-      <c r="L27" s="216"/>
-      <c r="M27" s="216"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="261"/>
       <c r="N27" s="130"/>
       <c r="O27" s="105"/>
       <c r="P27" s="110"/>
@@ -7842,8 +8332,8 @@
       <c r="I28" s="106"/>
       <c r="J28" s="105"/>
       <c r="K28" s="105"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="216"/>
+      <c r="L28" s="261"/>
+      <c r="M28" s="261"/>
       <c r="N28" s="105"/>
       <c r="O28" s="105"/>
       <c r="P28" s="110"/>
@@ -7870,8 +8360,8 @@
       <c r="I29" s="129"/>
       <c r="J29" s="129"/>
       <c r="K29" s="129"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="215"/>
+      <c r="L29" s="236"/>
+      <c r="M29" s="237"/>
       <c r="N29" s="130"/>
       <c r="O29" s="130"/>
       <c r="P29" s="128"/>
@@ -7899,8 +8389,8 @@
       <c r="I30" s="136"/>
       <c r="J30" s="136"/>
       <c r="K30" s="136"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="251"/>
+      <c r="L30" s="278"/>
+      <c r="M30" s="279"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
       <c r="P30" s="138"/>
@@ -7920,6 +8410,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7933,26 +8443,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8067,6 +8557,241 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE66341-43AE-4651-B03A-2EA64A79EE12}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="13.5" style="150" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="150" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="150" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="150" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="150" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="150"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="149" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="151">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152">
+        <v>1518741</v>
+      </c>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="154"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="154"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="160"/>
+      <c r="B22" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163">
+        <v>1518741</v>
+      </c>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="160"/>
+      <c r="B23" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="166">
+        <v>10426021</v>
+      </c>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -8087,52 +8812,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="163" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -8158,443 +8883,443 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="184"/>
+      <c r="D4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="184"/>
+      <c r="F4" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160" t="s">
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="164">
+      <c r="B5" s="180">
         <v>45001</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165" t="s">
+      <c r="C5" s="180"/>
+      <c r="D5" s="181" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="168" t="s">
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="166">
+      <c r="B6" s="178">
         <v>45835</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="179" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167" t="s">
+      <c r="E6" s="179"/>
+      <c r="F6" s="179" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="161" t="s">
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="177" t="s">
         <v>292</v>
       </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -8605,14 +9330,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -8629,62 +9402,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -8701,7 +9426,7 @@
   <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AI2"/>
+      <selection activeCell="AU31" sqref="AU31:BF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -8710,217 +9435,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="169" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="256" t="str">
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="204" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="257"/>
-      <c r="AE1" s="257"/>
-      <c r="AF1" s="257"/>
-      <c r="AG1" s="257"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
-      <c r="AJ1" s="173" t="s">
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="173" t="s">
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="174" t="s">
+      <c r="AW1" s="202"/>
+      <c r="AX1" s="202"/>
+      <c r="AY1" s="202"/>
+      <c r="AZ1" s="202"/>
+      <c r="BA1" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="BB1" s="174"/>
-      <c r="BC1" s="174"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="169" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="170" t="str">
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="199" t="str">
         <f>表紙!H15</f>
         <v>徴収簿</v>
       </c>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="173" t="s">
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="175">
+      <c r="AK2" s="202"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="202"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="203">
         <v>44752</v>
       </c>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="174"/>
-      <c r="AV2" s="173" t="s">
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="175">
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="203">
         <v>45835</v>
       </c>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
+      <c r="BB2" s="197"/>
+      <c r="BC2" s="197"/>
+      <c r="BD2" s="197"/>
+      <c r="BE2" s="197"/>
+      <c r="BF2" s="197"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="177"/>
-      <c r="AM3" s="177"/>
-      <c r="AN3" s="178"/>
-      <c r="AO3" s="176" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="195"/>
+      <c r="AK3" s="195"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="196"/>
+      <c r="AO3" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="177"/>
-      <c r="AQ3" s="177"/>
-      <c r="AR3" s="177"/>
-      <c r="AS3" s="177"/>
-      <c r="AT3" s="177"/>
-      <c r="AU3" s="177"/>
-      <c r="AV3" s="177"/>
-      <c r="AW3" s="177"/>
-      <c r="AX3" s="177"/>
-      <c r="AY3" s="177"/>
-      <c r="AZ3" s="177"/>
-      <c r="BA3" s="177"/>
-      <c r="BB3" s="177"/>
-      <c r="BC3" s="177"/>
-      <c r="BD3" s="177"/>
-      <c r="BE3" s="177"/>
-      <c r="BF3" s="178"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="195"/>
+      <c r="BD3" s="195"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="196"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -8931,670 +9656,674 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="179" t="s">
+      <c r="AO5" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="161"/>
-      <c r="AQ5" s="161"/>
-      <c r="AR5" s="161"/>
-      <c r="AS5" s="161"/>
-      <c r="AT5" s="161"/>
-      <c r="AU5" s="180" t="s">
+      <c r="AP5" s="177"/>
+      <c r="AQ5" s="177"/>
+      <c r="AR5" s="177"/>
+      <c r="AS5" s="177"/>
+      <c r="AT5" s="177"/>
+      <c r="AU5" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="AV5" s="180"/>
-      <c r="AW5" s="180"/>
-      <c r="AX5" s="180"/>
-      <c r="AY5" s="180"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="180"/>
-      <c r="BB5" s="180"/>
-      <c r="BC5" s="180"/>
-      <c r="BD5" s="180"/>
-      <c r="BE5" s="180"/>
-      <c r="BF5" s="181"/>
+      <c r="AV5" s="188"/>
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="188"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="188"/>
+      <c r="BA5" s="188"/>
+      <c r="BB5" s="188"/>
+      <c r="BC5" s="188"/>
+      <c r="BD5" s="188"/>
+      <c r="BE5" s="188"/>
+      <c r="BF5" s="189"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="179"/>
-      <c r="AP6" s="161"/>
-      <c r="AQ6" s="161"/>
-      <c r="AR6" s="161"/>
-      <c r="AS6" s="161"/>
-      <c r="AT6" s="161"/>
-      <c r="AU6" s="180"/>
-      <c r="AV6" s="180"/>
-      <c r="AW6" s="180"/>
-      <c r="AX6" s="180"/>
-      <c r="AY6" s="180"/>
-      <c r="AZ6" s="180"/>
-      <c r="BA6" s="180"/>
-      <c r="BB6" s="180"/>
-      <c r="BC6" s="180"/>
-      <c r="BD6" s="180"/>
-      <c r="BE6" s="180"/>
-      <c r="BF6" s="181"/>
+      <c r="AO6" s="187"/>
+      <c r="AP6" s="177"/>
+      <c r="AQ6" s="177"/>
+      <c r="AR6" s="177"/>
+      <c r="AS6" s="177"/>
+      <c r="AT6" s="177"/>
+      <c r="AU6" s="188"/>
+      <c r="AV6" s="188"/>
+      <c r="AW6" s="188"/>
+      <c r="AX6" s="188"/>
+      <c r="AY6" s="188"/>
+      <c r="AZ6" s="188"/>
+      <c r="BA6" s="188"/>
+      <c r="BB6" s="188"/>
+      <c r="BC6" s="188"/>
+      <c r="BD6" s="188"/>
+      <c r="BE6" s="188"/>
+      <c r="BF6" s="189"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="179" t="s">
+      <c r="AO7" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="161"/>
-      <c r="AQ7" s="161"/>
-      <c r="AR7" s="161"/>
-      <c r="AS7" s="161"/>
-      <c r="AT7" s="161"/>
-      <c r="AU7" s="180" t="s">
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177"/>
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="188" t="s">
         <v>231</v>
       </c>
-      <c r="AV7" s="180"/>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="180"/>
-      <c r="BA7" s="180"/>
-      <c r="BB7" s="180"/>
-      <c r="BC7" s="180"/>
-      <c r="BD7" s="180"/>
-      <c r="BE7" s="180"/>
-      <c r="BF7" s="181"/>
+      <c r="AV7" s="188"/>
+      <c r="AW7" s="188"/>
+      <c r="AX7" s="188"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="188"/>
+      <c r="BA7" s="188"/>
+      <c r="BB7" s="188"/>
+      <c r="BC7" s="188"/>
+      <c r="BD7" s="188"/>
+      <c r="BE7" s="188"/>
+      <c r="BF7" s="189"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="179"/>
-      <c r="AP8" s="161"/>
-      <c r="AQ8" s="161"/>
-      <c r="AR8" s="161"/>
-      <c r="AS8" s="161"/>
-      <c r="AT8" s="161"/>
-      <c r="AU8" s="180"/>
-      <c r="AV8" s="180"/>
-      <c r="AW8" s="180"/>
-      <c r="AX8" s="180"/>
-      <c r="AY8" s="180"/>
-      <c r="AZ8" s="180"/>
-      <c r="BA8" s="180"/>
-      <c r="BB8" s="180"/>
-      <c r="BC8" s="180"/>
-      <c r="BD8" s="180"/>
-      <c r="BE8" s="180"/>
-      <c r="BF8" s="181"/>
+      <c r="AO8" s="187"/>
+      <c r="AP8" s="177"/>
+      <c r="AQ8" s="177"/>
+      <c r="AR8" s="177"/>
+      <c r="AS8" s="177"/>
+      <c r="AT8" s="177"/>
+      <c r="AU8" s="188"/>
+      <c r="AV8" s="188"/>
+      <c r="AW8" s="188"/>
+      <c r="AX8" s="188"/>
+      <c r="AY8" s="188"/>
+      <c r="AZ8" s="188"/>
+      <c r="BA8" s="188"/>
+      <c r="BB8" s="188"/>
+      <c r="BC8" s="188"/>
+      <c r="BD8" s="188"/>
+      <c r="BE8" s="188"/>
+      <c r="BF8" s="189"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="179" t="s">
+      <c r="AO9" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="AP9" s="161"/>
-      <c r="AQ9" s="161"/>
-      <c r="AR9" s="161"/>
-      <c r="AS9" s="161"/>
-      <c r="AT9" s="161"/>
-      <c r="AU9" s="180" t="s">
+      <c r="AP9" s="177"/>
+      <c r="AQ9" s="177"/>
+      <c r="AR9" s="177"/>
+      <c r="AS9" s="177"/>
+      <c r="AT9" s="177"/>
+      <c r="AU9" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="AV9" s="180"/>
-      <c r="AW9" s="180"/>
-      <c r="AX9" s="180"/>
-      <c r="AY9" s="180"/>
-      <c r="AZ9" s="180"/>
-      <c r="BA9" s="180"/>
-      <c r="BB9" s="180"/>
-      <c r="BC9" s="180"/>
-      <c r="BD9" s="180"/>
-      <c r="BE9" s="180"/>
-      <c r="BF9" s="181"/>
+      <c r="AV9" s="188"/>
+      <c r="AW9" s="188"/>
+      <c r="AX9" s="188"/>
+      <c r="AY9" s="188"/>
+      <c r="AZ9" s="188"/>
+      <c r="BA9" s="188"/>
+      <c r="BB9" s="188"/>
+      <c r="BC9" s="188"/>
+      <c r="BD9" s="188"/>
+      <c r="BE9" s="188"/>
+      <c r="BF9" s="189"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="179"/>
-      <c r="AP10" s="161"/>
-      <c r="AQ10" s="161"/>
-      <c r="AR10" s="161"/>
-      <c r="AS10" s="161"/>
-      <c r="AT10" s="161"/>
-      <c r="AU10" s="180"/>
-      <c r="AV10" s="180"/>
-      <c r="AW10" s="180"/>
-      <c r="AX10" s="180"/>
-      <c r="AY10" s="180"/>
-      <c r="AZ10" s="180"/>
-      <c r="BA10" s="180"/>
-      <c r="BB10" s="180"/>
-      <c r="BC10" s="180"/>
-      <c r="BD10" s="180"/>
-      <c r="BE10" s="180"/>
-      <c r="BF10" s="181"/>
+      <c r="AO10" s="187"/>
+      <c r="AP10" s="177"/>
+      <c r="AQ10" s="177"/>
+      <c r="AR10" s="177"/>
+      <c r="AS10" s="177"/>
+      <c r="AT10" s="177"/>
+      <c r="AU10" s="188"/>
+      <c r="AV10" s="188"/>
+      <c r="AW10" s="188"/>
+      <c r="AX10" s="188"/>
+      <c r="AY10" s="188"/>
+      <c r="AZ10" s="188"/>
+      <c r="BA10" s="188"/>
+      <c r="BB10" s="188"/>
+      <c r="BC10" s="188"/>
+      <c r="BD10" s="188"/>
+      <c r="BE10" s="188"/>
+      <c r="BF10" s="189"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="179" t="s">
+      <c r="AO11" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="AP11" s="161"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="161"/>
-      <c r="AS11" s="161"/>
-      <c r="AT11" s="161"/>
-      <c r="AU11" s="180" t="s">
+      <c r="AP11" s="177"/>
+      <c r="AQ11" s="177"/>
+      <c r="AR11" s="177"/>
+      <c r="AS11" s="177"/>
+      <c r="AT11" s="177"/>
+      <c r="AU11" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="AV11" s="180"/>
-      <c r="AW11" s="180"/>
-      <c r="AX11" s="180"/>
-      <c r="AY11" s="180"/>
-      <c r="AZ11" s="180"/>
-      <c r="BA11" s="180"/>
-      <c r="BB11" s="180"/>
-      <c r="BC11" s="180"/>
-      <c r="BD11" s="180"/>
-      <c r="BE11" s="180"/>
-      <c r="BF11" s="181"/>
+      <c r="AV11" s="188"/>
+      <c r="AW11" s="188"/>
+      <c r="AX11" s="188"/>
+      <c r="AY11" s="188"/>
+      <c r="AZ11" s="188"/>
+      <c r="BA11" s="188"/>
+      <c r="BB11" s="188"/>
+      <c r="BC11" s="188"/>
+      <c r="BD11" s="188"/>
+      <c r="BE11" s="188"/>
+      <c r="BF11" s="189"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="179"/>
-      <c r="AP12" s="161"/>
-      <c r="AQ12" s="161"/>
-      <c r="AR12" s="161"/>
-      <c r="AS12" s="161"/>
-      <c r="AT12" s="161"/>
-      <c r="AU12" s="180"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="180"/>
-      <c r="AX12" s="180"/>
-      <c r="AY12" s="180"/>
-      <c r="AZ12" s="180"/>
-      <c r="BA12" s="180"/>
-      <c r="BB12" s="180"/>
-      <c r="BC12" s="180"/>
-      <c r="BD12" s="180"/>
-      <c r="BE12" s="180"/>
-      <c r="BF12" s="181"/>
+      <c r="AO12" s="187"/>
+      <c r="AP12" s="177"/>
+      <c r="AQ12" s="177"/>
+      <c r="AR12" s="177"/>
+      <c r="AS12" s="177"/>
+      <c r="AT12" s="177"/>
+      <c r="AU12" s="188"/>
+      <c r="AV12" s="188"/>
+      <c r="AW12" s="188"/>
+      <c r="AX12" s="188"/>
+      <c r="AY12" s="188"/>
+      <c r="AZ12" s="188"/>
+      <c r="BA12" s="188"/>
+      <c r="BB12" s="188"/>
+      <c r="BC12" s="188"/>
+      <c r="BD12" s="188"/>
+      <c r="BE12" s="188"/>
+      <c r="BF12" s="189"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="179" t="s">
+      <c r="AO13" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="AP13" s="161"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="161"/>
-      <c r="AS13" s="161"/>
-      <c r="AT13" s="161"/>
-      <c r="AU13" s="180" t="s">
+      <c r="AP13" s="177"/>
+      <c r="AQ13" s="177"/>
+      <c r="AR13" s="177"/>
+      <c r="AS13" s="177"/>
+      <c r="AT13" s="177"/>
+      <c r="AU13" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="AV13" s="180"/>
-      <c r="AW13" s="180"/>
-      <c r="AX13" s="180"/>
-      <c r="AY13" s="180"/>
-      <c r="AZ13" s="180"/>
-      <c r="BA13" s="180"/>
-      <c r="BB13" s="180"/>
-      <c r="BC13" s="180"/>
-      <c r="BD13" s="180"/>
-      <c r="BE13" s="180"/>
-      <c r="BF13" s="181"/>
+      <c r="AV13" s="188"/>
+      <c r="AW13" s="188"/>
+      <c r="AX13" s="188"/>
+      <c r="AY13" s="188"/>
+      <c r="AZ13" s="188"/>
+      <c r="BA13" s="188"/>
+      <c r="BB13" s="188"/>
+      <c r="BC13" s="188"/>
+      <c r="BD13" s="188"/>
+      <c r="BE13" s="188"/>
+      <c r="BF13" s="189"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="179"/>
-      <c r="AP14" s="161"/>
-      <c r="AQ14" s="161"/>
-      <c r="AR14" s="161"/>
-      <c r="AS14" s="161"/>
-      <c r="AT14" s="161"/>
-      <c r="AU14" s="180"/>
-      <c r="AV14" s="180"/>
-      <c r="AW14" s="180"/>
-      <c r="AX14" s="180"/>
-      <c r="AY14" s="180"/>
-      <c r="AZ14" s="180"/>
-      <c r="BA14" s="180"/>
-      <c r="BB14" s="180"/>
-      <c r="BC14" s="180"/>
-      <c r="BD14" s="180"/>
-      <c r="BE14" s="180"/>
-      <c r="BF14" s="181"/>
+      <c r="AO14" s="187"/>
+      <c r="AP14" s="177"/>
+      <c r="AQ14" s="177"/>
+      <c r="AR14" s="177"/>
+      <c r="AS14" s="177"/>
+      <c r="AT14" s="177"/>
+      <c r="AU14" s="188"/>
+      <c r="AV14" s="188"/>
+      <c r="AW14" s="188"/>
+      <c r="AX14" s="188"/>
+      <c r="AY14" s="188"/>
+      <c r="AZ14" s="188"/>
+      <c r="BA14" s="188"/>
+      <c r="BB14" s="188"/>
+      <c r="BC14" s="188"/>
+      <c r="BD14" s="188"/>
+      <c r="BE14" s="188"/>
+      <c r="BF14" s="189"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="179" t="s">
+      <c r="AO15" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="AP15" s="161"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="161"/>
-      <c r="AS15" s="161"/>
-      <c r="AT15" s="161"/>
-      <c r="AU15" s="180" t="s">
+      <c r="AP15" s="177"/>
+      <c r="AQ15" s="177"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="177"/>
+      <c r="AT15" s="177"/>
+      <c r="AU15" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="AV15" s="180"/>
-      <c r="AW15" s="180"/>
-      <c r="AX15" s="180"/>
-      <c r="AY15" s="180"/>
-      <c r="AZ15" s="180"/>
-      <c r="BA15" s="180"/>
-      <c r="BB15" s="180"/>
-      <c r="BC15" s="180"/>
-      <c r="BD15" s="180"/>
-      <c r="BE15" s="180"/>
-      <c r="BF15" s="181"/>
+      <c r="AV15" s="188"/>
+      <c r="AW15" s="188"/>
+      <c r="AX15" s="188"/>
+      <c r="AY15" s="188"/>
+      <c r="AZ15" s="188"/>
+      <c r="BA15" s="188"/>
+      <c r="BB15" s="188"/>
+      <c r="BC15" s="188"/>
+      <c r="BD15" s="188"/>
+      <c r="BE15" s="188"/>
+      <c r="BF15" s="189"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="179"/>
-      <c r="AP16" s="161"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="161"/>
-      <c r="AS16" s="161"/>
-      <c r="AT16" s="161"/>
-      <c r="AU16" s="180"/>
-      <c r="AV16" s="180"/>
-      <c r="AW16" s="180"/>
-      <c r="AX16" s="180"/>
-      <c r="AY16" s="180"/>
-      <c r="AZ16" s="180"/>
-      <c r="BA16" s="180"/>
-      <c r="BB16" s="180"/>
-      <c r="BC16" s="180"/>
-      <c r="BD16" s="180"/>
-      <c r="BE16" s="180"/>
-      <c r="BF16" s="181"/>
+      <c r="AO16" s="187"/>
+      <c r="AP16" s="177"/>
+      <c r="AQ16" s="177"/>
+      <c r="AR16" s="177"/>
+      <c r="AS16" s="177"/>
+      <c r="AT16" s="177"/>
+      <c r="AU16" s="188"/>
+      <c r="AV16" s="188"/>
+      <c r="AW16" s="188"/>
+      <c r="AX16" s="188"/>
+      <c r="AY16" s="188"/>
+      <c r="AZ16" s="188"/>
+      <c r="BA16" s="188"/>
+      <c r="BB16" s="188"/>
+      <c r="BC16" s="188"/>
+      <c r="BD16" s="188"/>
+      <c r="BE16" s="188"/>
+      <c r="BF16" s="189"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="179" t="s">
+      <c r="AO17" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="AP17" s="161"/>
-      <c r="AQ17" s="161"/>
-      <c r="AR17" s="161"/>
-      <c r="AS17" s="161"/>
-      <c r="AT17" s="161"/>
-      <c r="AU17" s="180" t="s">
+      <c r="AP17" s="177"/>
+      <c r="AQ17" s="177"/>
+      <c r="AR17" s="177"/>
+      <c r="AS17" s="177"/>
+      <c r="AT17" s="177"/>
+      <c r="AU17" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="AV17" s="180"/>
-      <c r="AW17" s="180"/>
-      <c r="AX17" s="180"/>
-      <c r="AY17" s="180"/>
-      <c r="AZ17" s="180"/>
-      <c r="BA17" s="180"/>
-      <c r="BB17" s="180"/>
-      <c r="BC17" s="180"/>
-      <c r="BD17" s="180"/>
-      <c r="BE17" s="180"/>
-      <c r="BF17" s="181"/>
+      <c r="AV17" s="188"/>
+      <c r="AW17" s="188"/>
+      <c r="AX17" s="188"/>
+      <c r="AY17" s="188"/>
+      <c r="AZ17" s="188"/>
+      <c r="BA17" s="188"/>
+      <c r="BB17" s="188"/>
+      <c r="BC17" s="188"/>
+      <c r="BD17" s="188"/>
+      <c r="BE17" s="188"/>
+      <c r="BF17" s="189"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="179"/>
-      <c r="AP18" s="161"/>
-      <c r="AQ18" s="161"/>
-      <c r="AR18" s="161"/>
-      <c r="AS18" s="161"/>
-      <c r="AT18" s="161"/>
-      <c r="AU18" s="180"/>
-      <c r="AV18" s="180"/>
-      <c r="AW18" s="180"/>
-      <c r="AX18" s="180"/>
-      <c r="AY18" s="180"/>
-      <c r="AZ18" s="180"/>
-      <c r="BA18" s="180"/>
-      <c r="BB18" s="180"/>
-      <c r="BC18" s="180"/>
-      <c r="BD18" s="180"/>
-      <c r="BE18" s="180"/>
-      <c r="BF18" s="181"/>
+      <c r="AO18" s="187"/>
+      <c r="AP18" s="177"/>
+      <c r="AQ18" s="177"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="177"/>
+      <c r="AT18" s="177"/>
+      <c r="AU18" s="188"/>
+      <c r="AV18" s="188"/>
+      <c r="AW18" s="188"/>
+      <c r="AX18" s="188"/>
+      <c r="AY18" s="188"/>
+      <c r="AZ18" s="188"/>
+      <c r="BA18" s="188"/>
+      <c r="BB18" s="188"/>
+      <c r="BC18" s="188"/>
+      <c r="BD18" s="188"/>
+      <c r="BE18" s="188"/>
+      <c r="BF18" s="189"/>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="179" t="s">
+      <c r="AO19" s="187" t="s">
         <v>236</v>
       </c>
-      <c r="AP19" s="161"/>
-      <c r="AQ19" s="161"/>
-      <c r="AR19" s="161"/>
-      <c r="AS19" s="161"/>
-      <c r="AT19" s="161"/>
-      <c r="AU19" s="180" t="s">
+      <c r="AP19" s="177"/>
+      <c r="AQ19" s="177"/>
+      <c r="AR19" s="177"/>
+      <c r="AS19" s="177"/>
+      <c r="AT19" s="177"/>
+      <c r="AU19" s="188" t="s">
         <v>237</v>
       </c>
-      <c r="AV19" s="180"/>
-      <c r="AW19" s="180"/>
-      <c r="AX19" s="180"/>
-      <c r="AY19" s="180"/>
-      <c r="AZ19" s="180"/>
-      <c r="BA19" s="180"/>
-      <c r="BB19" s="180"/>
-      <c r="BC19" s="180"/>
-      <c r="BD19" s="180"/>
-      <c r="BE19" s="180"/>
-      <c r="BF19" s="181"/>
+      <c r="AV19" s="188"/>
+      <c r="AW19" s="188"/>
+      <c r="AX19" s="188"/>
+      <c r="AY19" s="188"/>
+      <c r="AZ19" s="188"/>
+      <c r="BA19" s="188"/>
+      <c r="BB19" s="188"/>
+      <c r="BC19" s="188"/>
+      <c r="BD19" s="188"/>
+      <c r="BE19" s="188"/>
+      <c r="BF19" s="189"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="179"/>
-      <c r="AP20" s="161"/>
-      <c r="AQ20" s="161"/>
-      <c r="AR20" s="161"/>
-      <c r="AS20" s="161"/>
-      <c r="AT20" s="161"/>
-      <c r="AU20" s="180"/>
-      <c r="AV20" s="180"/>
-      <c r="AW20" s="180"/>
-      <c r="AX20" s="180"/>
-      <c r="AY20" s="180"/>
-      <c r="AZ20" s="180"/>
-      <c r="BA20" s="180"/>
-      <c r="BB20" s="180"/>
-      <c r="BC20" s="180"/>
-      <c r="BD20" s="180"/>
-      <c r="BE20" s="180"/>
-      <c r="BF20" s="181"/>
+      <c r="AO20" s="187"/>
+      <c r="AP20" s="177"/>
+      <c r="AQ20" s="177"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="177"/>
+      <c r="AT20" s="177"/>
+      <c r="AU20" s="188"/>
+      <c r="AV20" s="188"/>
+      <c r="AW20" s="188"/>
+      <c r="AX20" s="188"/>
+      <c r="AY20" s="188"/>
+      <c r="AZ20" s="188"/>
+      <c r="BA20" s="188"/>
+      <c r="BB20" s="188"/>
+      <c r="BC20" s="188"/>
+      <c r="BD20" s="188"/>
+      <c r="BE20" s="188"/>
+      <c r="BF20" s="189"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="179" t="s">
+      <c r="AO21" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="AP21" s="161"/>
-      <c r="AQ21" s="161"/>
-      <c r="AR21" s="161"/>
-      <c r="AS21" s="161"/>
-      <c r="AT21" s="161"/>
-      <c r="AU21" s="180" t="s">
+      <c r="AP21" s="177"/>
+      <c r="AQ21" s="177"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="177"/>
+      <c r="AT21" s="177"/>
+      <c r="AU21" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="AV21" s="180"/>
-      <c r="AW21" s="180"/>
-      <c r="AX21" s="180"/>
-      <c r="AY21" s="180"/>
-      <c r="AZ21" s="180"/>
-      <c r="BA21" s="180"/>
-      <c r="BB21" s="180"/>
-      <c r="BC21" s="180"/>
-      <c r="BD21" s="180"/>
-      <c r="BE21" s="180"/>
-      <c r="BF21" s="181"/>
+      <c r="AV21" s="188"/>
+      <c r="AW21" s="188"/>
+      <c r="AX21" s="188"/>
+      <c r="AY21" s="188"/>
+      <c r="AZ21" s="188"/>
+      <c r="BA21" s="188"/>
+      <c r="BB21" s="188"/>
+      <c r="BC21" s="188"/>
+      <c r="BD21" s="188"/>
+      <c r="BE21" s="188"/>
+      <c r="BF21" s="189"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="179"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="161"/>
-      <c r="AS22" s="161"/>
-      <c r="AT22" s="161"/>
-      <c r="AU22" s="180"/>
-      <c r="AV22" s="180"/>
-      <c r="AW22" s="180"/>
-      <c r="AX22" s="180"/>
-      <c r="AY22" s="180"/>
-      <c r="AZ22" s="180"/>
-      <c r="BA22" s="180"/>
-      <c r="BB22" s="180"/>
-      <c r="BC22" s="180"/>
-      <c r="BD22" s="180"/>
-      <c r="BE22" s="180"/>
-      <c r="BF22" s="181"/>
+      <c r="AO22" s="187"/>
+      <c r="AP22" s="177"/>
+      <c r="AQ22" s="177"/>
+      <c r="AR22" s="177"/>
+      <c r="AS22" s="177"/>
+      <c r="AT22" s="177"/>
+      <c r="AU22" s="188"/>
+      <c r="AV22" s="188"/>
+      <c r="AW22" s="188"/>
+      <c r="AX22" s="188"/>
+      <c r="AY22" s="188"/>
+      <c r="AZ22" s="188"/>
+      <c r="BA22" s="188"/>
+      <c r="BB22" s="188"/>
+      <c r="BC22" s="188"/>
+      <c r="BD22" s="188"/>
+      <c r="BE22" s="188"/>
+      <c r="BF22" s="189"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="179" t="s">
+      <c r="AO23" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="AP23" s="161"/>
-      <c r="AQ23" s="161"/>
-      <c r="AR23" s="161"/>
-      <c r="AS23" s="161"/>
-      <c r="AT23" s="161"/>
-      <c r="AU23" s="180" t="s">
+      <c r="AP23" s="177"/>
+      <c r="AQ23" s="177"/>
+      <c r="AR23" s="177"/>
+      <c r="AS23" s="177"/>
+      <c r="AT23" s="177"/>
+      <c r="AU23" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="AV23" s="180"/>
-      <c r="AW23" s="180"/>
-      <c r="AX23" s="180"/>
-      <c r="AY23" s="180"/>
-      <c r="AZ23" s="180"/>
-      <c r="BA23" s="180"/>
-      <c r="BB23" s="180"/>
-      <c r="BC23" s="180"/>
-      <c r="BD23" s="180"/>
-      <c r="BE23" s="180"/>
-      <c r="BF23" s="181"/>
+      <c r="AV23" s="188"/>
+      <c r="AW23" s="188"/>
+      <c r="AX23" s="188"/>
+      <c r="AY23" s="188"/>
+      <c r="AZ23" s="188"/>
+      <c r="BA23" s="188"/>
+      <c r="BB23" s="188"/>
+      <c r="BC23" s="188"/>
+      <c r="BD23" s="188"/>
+      <c r="BE23" s="188"/>
+      <c r="BF23" s="189"/>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="179"/>
-      <c r="AP24" s="161"/>
-      <c r="AQ24" s="161"/>
-      <c r="AR24" s="161"/>
-      <c r="AS24" s="161"/>
-      <c r="AT24" s="161"/>
-      <c r="AU24" s="180"/>
-      <c r="AV24" s="180"/>
-      <c r="AW24" s="180"/>
-      <c r="AX24" s="180"/>
-      <c r="AY24" s="180"/>
-      <c r="AZ24" s="180"/>
-      <c r="BA24" s="180"/>
-      <c r="BB24" s="180"/>
-      <c r="BC24" s="180"/>
-      <c r="BD24" s="180"/>
-      <c r="BE24" s="180"/>
-      <c r="BF24" s="181"/>
+      <c r="AO24" s="187"/>
+      <c r="AP24" s="177"/>
+      <c r="AQ24" s="177"/>
+      <c r="AR24" s="177"/>
+      <c r="AS24" s="177"/>
+      <c r="AT24" s="177"/>
+      <c r="AU24" s="188"/>
+      <c r="AV24" s="188"/>
+      <c r="AW24" s="188"/>
+      <c r="AX24" s="188"/>
+      <c r="AY24" s="188"/>
+      <c r="AZ24" s="188"/>
+      <c r="BA24" s="188"/>
+      <c r="BB24" s="188"/>
+      <c r="BC24" s="188"/>
+      <c r="BD24" s="188"/>
+      <c r="BE24" s="188"/>
+      <c r="BF24" s="189"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="179" t="s">
+      <c r="AO25" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="AP25" s="161"/>
-      <c r="AQ25" s="161"/>
-      <c r="AR25" s="161"/>
-      <c r="AS25" s="161"/>
-      <c r="AT25" s="161"/>
-      <c r="AU25" s="180" t="s">
+      <c r="AP25" s="177"/>
+      <c r="AQ25" s="177"/>
+      <c r="AR25" s="177"/>
+      <c r="AS25" s="177"/>
+      <c r="AT25" s="177"/>
+      <c r="AU25" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="AV25" s="180"/>
-      <c r="AW25" s="180"/>
-      <c r="AX25" s="180"/>
-      <c r="AY25" s="180"/>
-      <c r="AZ25" s="180"/>
-      <c r="BA25" s="180"/>
-      <c r="BB25" s="180"/>
-      <c r="BC25" s="180"/>
-      <c r="BD25" s="180"/>
-      <c r="BE25" s="180"/>
-      <c r="BF25" s="181"/>
+      <c r="AV25" s="188"/>
+      <c r="AW25" s="188"/>
+      <c r="AX25" s="188"/>
+      <c r="AY25" s="188"/>
+      <c r="AZ25" s="188"/>
+      <c r="BA25" s="188"/>
+      <c r="BB25" s="188"/>
+      <c r="BC25" s="188"/>
+      <c r="BD25" s="188"/>
+      <c r="BE25" s="188"/>
+      <c r="BF25" s="189"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="179"/>
-      <c r="AP26" s="161"/>
-      <c r="AQ26" s="161"/>
-      <c r="AR26" s="161"/>
-      <c r="AS26" s="161"/>
-      <c r="AT26" s="161"/>
-      <c r="AU26" s="180"/>
-      <c r="AV26" s="180"/>
-      <c r="AW26" s="180"/>
-      <c r="AX26" s="180"/>
-      <c r="AY26" s="180"/>
-      <c r="AZ26" s="180"/>
-      <c r="BA26" s="180"/>
-      <c r="BB26" s="180"/>
-      <c r="BC26" s="180"/>
-      <c r="BD26" s="180"/>
-      <c r="BE26" s="180"/>
-      <c r="BF26" s="181"/>
+      <c r="AO26" s="187"/>
+      <c r="AP26" s="177"/>
+      <c r="AQ26" s="177"/>
+      <c r="AR26" s="177"/>
+      <c r="AS26" s="177"/>
+      <c r="AT26" s="177"/>
+      <c r="AU26" s="188"/>
+      <c r="AV26" s="188"/>
+      <c r="AW26" s="188"/>
+      <c r="AX26" s="188"/>
+      <c r="AY26" s="188"/>
+      <c r="AZ26" s="188"/>
+      <c r="BA26" s="188"/>
+      <c r="BB26" s="188"/>
+      <c r="BC26" s="188"/>
+      <c r="BD26" s="188"/>
+      <c r="BE26" s="188"/>
+      <c r="BF26" s="189"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="179" t="s">
+      <c r="AO27" s="187" t="s">
         <v>241</v>
       </c>
-      <c r="AP27" s="161"/>
-      <c r="AQ27" s="161"/>
-      <c r="AR27" s="161"/>
-      <c r="AS27" s="161"/>
-      <c r="AT27" s="161"/>
-      <c r="AU27" s="180" t="s">
+      <c r="AP27" s="177"/>
+      <c r="AQ27" s="177"/>
+      <c r="AR27" s="177"/>
+      <c r="AS27" s="177"/>
+      <c r="AT27" s="177"/>
+      <c r="AU27" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="AV27" s="180"/>
-      <c r="AW27" s="180"/>
-      <c r="AX27" s="180"/>
-      <c r="AY27" s="180"/>
-      <c r="AZ27" s="180"/>
-      <c r="BA27" s="180"/>
-      <c r="BB27" s="180"/>
-      <c r="BC27" s="180"/>
-      <c r="BD27" s="180"/>
-      <c r="BE27" s="180"/>
-      <c r="BF27" s="181"/>
+      <c r="AV27" s="188"/>
+      <c r="AW27" s="188"/>
+      <c r="AX27" s="188"/>
+      <c r="AY27" s="188"/>
+      <c r="AZ27" s="188"/>
+      <c r="BA27" s="188"/>
+      <c r="BB27" s="188"/>
+      <c r="BC27" s="188"/>
+      <c r="BD27" s="188"/>
+      <c r="BE27" s="188"/>
+      <c r="BF27" s="189"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="179"/>
-      <c r="AP28" s="161"/>
-      <c r="AQ28" s="161"/>
-      <c r="AR28" s="161"/>
-      <c r="AS28" s="161"/>
-      <c r="AT28" s="161"/>
-      <c r="AU28" s="180"/>
-      <c r="AV28" s="180"/>
-      <c r="AW28" s="180"/>
-      <c r="AX28" s="180"/>
-      <c r="AY28" s="180"/>
-      <c r="AZ28" s="180"/>
-      <c r="BA28" s="180"/>
-      <c r="BB28" s="180"/>
-      <c r="BC28" s="180"/>
-      <c r="BD28" s="180"/>
-      <c r="BE28" s="180"/>
-      <c r="BF28" s="181"/>
+      <c r="AO28" s="187"/>
+      <c r="AP28" s="177"/>
+      <c r="AQ28" s="177"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="177"/>
+      <c r="AT28" s="177"/>
+      <c r="AU28" s="188"/>
+      <c r="AV28" s="188"/>
+      <c r="AW28" s="188"/>
+      <c r="AX28" s="188"/>
+      <c r="AY28" s="188"/>
+      <c r="AZ28" s="188"/>
+      <c r="BA28" s="188"/>
+      <c r="BB28" s="188"/>
+      <c r="BC28" s="188"/>
+      <c r="BD28" s="188"/>
+      <c r="BE28" s="188"/>
+      <c r="BF28" s="189"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="182" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP29" s="183"/>
-      <c r="AQ29" s="183"/>
-      <c r="AR29" s="183"/>
-      <c r="AS29" s="183"/>
-      <c r="AT29" s="183"/>
-      <c r="AU29" s="184" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV29" s="184"/>
-      <c r="AW29" s="184"/>
-      <c r="AX29" s="184"/>
-      <c r="AY29" s="184"/>
-      <c r="AZ29" s="184"/>
-      <c r="BA29" s="184"/>
-      <c r="BB29" s="184"/>
-      <c r="BC29" s="184"/>
-      <c r="BD29" s="184"/>
-      <c r="BE29" s="184"/>
-      <c r="BF29" s="185"/>
+      <c r="AO29" s="190" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP29" s="191"/>
+      <c r="AQ29" s="191"/>
+      <c r="AR29" s="191"/>
+      <c r="AS29" s="191"/>
+      <c r="AT29" s="191"/>
+      <c r="AU29" s="192" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV29" s="192"/>
+      <c r="AW29" s="192"/>
+      <c r="AX29" s="192"/>
+      <c r="AY29" s="192"/>
+      <c r="AZ29" s="192"/>
+      <c r="BA29" s="192"/>
+      <c r="BB29" s="192"/>
+      <c r="BC29" s="192"/>
+      <c r="BD29" s="192"/>
+      <c r="BE29" s="192"/>
+      <c r="BF29" s="193"/>
     </row>
     <row r="30" spans="1:58" ht="11.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="182"/>
-      <c r="AP30" s="183"/>
-      <c r="AQ30" s="183"/>
-      <c r="AR30" s="183"/>
-      <c r="AS30" s="183"/>
-      <c r="AT30" s="183"/>
-      <c r="AU30" s="184"/>
-      <c r="AV30" s="184"/>
-      <c r="AW30" s="184"/>
-      <c r="AX30" s="184"/>
-      <c r="AY30" s="184"/>
-      <c r="AZ30" s="184"/>
-      <c r="BA30" s="184"/>
-      <c r="BB30" s="184"/>
-      <c r="BC30" s="184"/>
-      <c r="BD30" s="184"/>
-      <c r="BE30" s="184"/>
-      <c r="BF30" s="185"/>
+      <c r="AO30" s="190"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="191"/>
+      <c r="AR30" s="191"/>
+      <c r="AS30" s="191"/>
+      <c r="AT30" s="191"/>
+      <c r="AU30" s="192"/>
+      <c r="AV30" s="192"/>
+      <c r="AW30" s="192"/>
+      <c r="AX30" s="192"/>
+      <c r="AY30" s="192"/>
+      <c r="AZ30" s="192"/>
+      <c r="BA30" s="192"/>
+      <c r="BB30" s="192"/>
+      <c r="BC30" s="192"/>
+      <c r="BD30" s="192"/>
+      <c r="BE30" s="192"/>
+      <c r="BF30" s="193"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="76"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
-      <c r="BE31" s="77"/>
-      <c r="BF31" s="78"/>
+      <c r="AO31" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP31" s="191"/>
+      <c r="AQ31" s="191"/>
+      <c r="AR31" s="191"/>
+      <c r="AS31" s="191"/>
+      <c r="AT31" s="191"/>
+      <c r="AU31" s="192" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV31" s="192"/>
+      <c r="AW31" s="192"/>
+      <c r="AX31" s="192"/>
+      <c r="AY31" s="192"/>
+      <c r="AZ31" s="192"/>
+      <c r="BA31" s="192"/>
+      <c r="BB31" s="192"/>
+      <c r="BC31" s="192"/>
+      <c r="BD31" s="192"/>
+      <c r="BE31" s="192"/>
+      <c r="BF31" s="193"/>
     </row>
     <row r="32" spans="1:58" ht="11.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="76"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="77"/>
-      <c r="AX32" s="77"/>
-      <c r="AY32" s="77"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="77"/>
-      <c r="BB32" s="77"/>
-      <c r="BC32" s="77"/>
-      <c r="BD32" s="77"/>
-      <c r="BE32" s="77"/>
-      <c r="BF32" s="78"/>
+      <c r="AO32" s="190"/>
+      <c r="AP32" s="191"/>
+      <c r="AQ32" s="191"/>
+      <c r="AR32" s="191"/>
+      <c r="AS32" s="191"/>
+      <c r="AT32" s="191"/>
+      <c r="AU32" s="192"/>
+      <c r="AV32" s="192"/>
+      <c r="AW32" s="192"/>
+      <c r="AX32" s="192"/>
+      <c r="AY32" s="192"/>
+      <c r="AZ32" s="192"/>
+      <c r="BA32" s="192"/>
+      <c r="BB32" s="192"/>
+      <c r="BC32" s="192"/>
+      <c r="BD32" s="192"/>
+      <c r="BE32" s="192"/>
+      <c r="BF32" s="193"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
@@ -9695,98 +10424,98 @@
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="179" t="s">
+      <c r="AO38" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="AP38" s="161"/>
-      <c r="AQ38" s="161"/>
-      <c r="AR38" s="161"/>
-      <c r="AS38" s="161"/>
-      <c r="AT38" s="161"/>
-      <c r="AU38" s="180" t="s">
+      <c r="AP38" s="177"/>
+      <c r="AQ38" s="177"/>
+      <c r="AR38" s="177"/>
+      <c r="AS38" s="177"/>
+      <c r="AT38" s="177"/>
+      <c r="AU38" s="188" t="s">
         <v>242</v>
       </c>
-      <c r="AV38" s="180"/>
-      <c r="AW38" s="180"/>
-      <c r="AX38" s="180"/>
-      <c r="AY38" s="180"/>
-      <c r="AZ38" s="180"/>
-      <c r="BA38" s="180"/>
-      <c r="BB38" s="180"/>
-      <c r="BC38" s="180"/>
-      <c r="BD38" s="180"/>
-      <c r="BE38" s="180"/>
-      <c r="BF38" s="181"/>
+      <c r="AV38" s="188"/>
+      <c r="AW38" s="188"/>
+      <c r="AX38" s="188"/>
+      <c r="AY38" s="188"/>
+      <c r="AZ38" s="188"/>
+      <c r="BA38" s="188"/>
+      <c r="BB38" s="188"/>
+      <c r="BC38" s="188"/>
+      <c r="BD38" s="188"/>
+      <c r="BE38" s="188"/>
+      <c r="BF38" s="189"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="179"/>
-      <c r="AP39" s="161"/>
-      <c r="AQ39" s="161"/>
-      <c r="AR39" s="161"/>
-      <c r="AS39" s="161"/>
-      <c r="AT39" s="161"/>
-      <c r="AU39" s="180"/>
-      <c r="AV39" s="180"/>
-      <c r="AW39" s="180"/>
-      <c r="AX39" s="180"/>
-      <c r="AY39" s="180"/>
-      <c r="AZ39" s="180"/>
-      <c r="BA39" s="180"/>
-      <c r="BB39" s="180"/>
-      <c r="BC39" s="180"/>
-      <c r="BD39" s="180"/>
-      <c r="BE39" s="180"/>
-      <c r="BF39" s="181"/>
+      <c r="AO39" s="187"/>
+      <c r="AP39" s="177"/>
+      <c r="AQ39" s="177"/>
+      <c r="AR39" s="177"/>
+      <c r="AS39" s="177"/>
+      <c r="AT39" s="177"/>
+      <c r="AU39" s="188"/>
+      <c r="AV39" s="188"/>
+      <c r="AW39" s="188"/>
+      <c r="AX39" s="188"/>
+      <c r="AY39" s="188"/>
+      <c r="AZ39" s="188"/>
+      <c r="BA39" s="188"/>
+      <c r="BB39" s="188"/>
+      <c r="BC39" s="188"/>
+      <c r="BD39" s="188"/>
+      <c r="BE39" s="188"/>
+      <c r="BF39" s="189"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
-      <c r="AO40" s="179" t="s">
+      <c r="AO40" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="AP40" s="161"/>
-      <c r="AQ40" s="161"/>
-      <c r="AR40" s="161"/>
-      <c r="AS40" s="161"/>
-      <c r="AT40" s="161"/>
-      <c r="AU40" s="180" t="s">
+      <c r="AP40" s="177"/>
+      <c r="AQ40" s="177"/>
+      <c r="AR40" s="177"/>
+      <c r="AS40" s="177"/>
+      <c r="AT40" s="177"/>
+      <c r="AU40" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="AV40" s="180"/>
-      <c r="AW40" s="180"/>
-      <c r="AX40" s="180"/>
-      <c r="AY40" s="180"/>
-      <c r="AZ40" s="180"/>
-      <c r="BA40" s="180"/>
-      <c r="BB40" s="180"/>
-      <c r="BC40" s="180"/>
-      <c r="BD40" s="180"/>
-      <c r="BE40" s="180"/>
-      <c r="BF40" s="181"/>
+      <c r="AV40" s="188"/>
+      <c r="AW40" s="188"/>
+      <c r="AX40" s="188"/>
+      <c r="AY40" s="188"/>
+      <c r="AZ40" s="188"/>
+      <c r="BA40" s="188"/>
+      <c r="BB40" s="188"/>
+      <c r="BC40" s="188"/>
+      <c r="BD40" s="188"/>
+      <c r="BE40" s="188"/>
+      <c r="BF40" s="189"/>
     </row>
     <row r="41" spans="1:58">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="179"/>
-      <c r="AP41" s="161"/>
-      <c r="AQ41" s="161"/>
-      <c r="AR41" s="161"/>
-      <c r="AS41" s="161"/>
-      <c r="AT41" s="161"/>
-      <c r="AU41" s="180"/>
-      <c r="AV41" s="180"/>
-      <c r="AW41" s="180"/>
-      <c r="AX41" s="180"/>
-      <c r="AY41" s="180"/>
-      <c r="AZ41" s="180"/>
-      <c r="BA41" s="180"/>
-      <c r="BB41" s="180"/>
-      <c r="BC41" s="180"/>
-      <c r="BD41" s="180"/>
-      <c r="BE41" s="180"/>
-      <c r="BF41" s="181"/>
+      <c r="AO41" s="187"/>
+      <c r="AP41" s="177"/>
+      <c r="AQ41" s="177"/>
+      <c r="AR41" s="177"/>
+      <c r="AS41" s="177"/>
+      <c r="AT41" s="177"/>
+      <c r="AU41" s="188"/>
+      <c r="AV41" s="188"/>
+      <c r="AW41" s="188"/>
+      <c r="AX41" s="188"/>
+      <c r="AY41" s="188"/>
+      <c r="AZ41" s="188"/>
+      <c r="BA41" s="188"/>
+      <c r="BB41" s="188"/>
+      <c r="BC41" s="188"/>
+      <c r="BD41" s="188"/>
+      <c r="BE41" s="188"/>
+      <c r="BF41" s="189"/>
     </row>
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
@@ -9897,7 +10626,44 @@
       <c r="BF50" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO25:AT26"/>
+    <mergeCell ref="AU25:BF26"/>
     <mergeCell ref="AO27:AT28"/>
     <mergeCell ref="AU27:BF28"/>
     <mergeCell ref="AO38:AT39"/>
@@ -9906,43 +10672,8 @@
     <mergeCell ref="AU40:BF41"/>
     <mergeCell ref="AO29:AT30"/>
     <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO25:AT26"/>
-    <mergeCell ref="AU25:BF26"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AU31:BF32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9972,27 +10703,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="190" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="259" t="str">
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="261"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -10007,24 +10738,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="190" t="s">
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193" t="str">
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="218" t="str">
         <f>表紙!H15</f>
         <v>徴収簿</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="220"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -10039,42 +10770,42 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188" t="s">
+      <c r="D4" s="209"/>
+      <c r="E4" s="209" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188" t="s">
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="188"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="38" t="s">
         <v>53</v>
       </c>
@@ -10090,23 +10821,23 @@
       <c r="J5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="209"/>
+      <c r="Q5" s="209"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188" t="s">
+      <c r="B6" s="209"/>
+      <c r="C6" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="188"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="46" t="s">
         <v>59</v>
       </c>
@@ -10115,25 +10846,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="196" t="s">
+      <c r="K6" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188" t="s">
+      <c r="B7" s="209"/>
+      <c r="C7" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="188"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="46" t="s">
         <v>59</v>
       </c>
@@ -10142,25 +10873,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188" t="s">
+      <c r="B8" s="209"/>
+      <c r="C8" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="188"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="46" t="s">
         <v>59</v>
       </c>
@@ -10175,25 +10906,25 @@
         <v>216</v>
       </c>
       <c r="J8" s="38"/>
-      <c r="K8" s="196" t="s">
+      <c r="K8" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="196"/>
+      <c r="L8" s="210"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="210"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="209" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188" t="s">
+      <c r="B9" s="209"/>
+      <c r="C9" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="188"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="46" t="s">
         <v>59</v>
       </c>
@@ -10206,25 +10937,25 @@
         <v>4</v>
       </c>
       <c r="J9" s="38"/>
-      <c r="K9" s="196" t="s">
+      <c r="K9" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="196"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="210"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188" t="s">
+      <c r="B10" s="209"/>
+      <c r="C10" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="188"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="46" t="s">
         <v>59</v>
       </c>
@@ -10233,25 +10964,25 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="196" t="s">
+      <c r="K10" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="209" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188" t="s">
+      <c r="B11" s="209"/>
+      <c r="C11" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="188"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="46" t="s">
         <v>62</v>
       </c>
@@ -10260,25 +10991,25 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="196" t="s">
+      <c r="K11" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="210"/>
+      <c r="Q11" s="210"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="209" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188" t="s">
+      <c r="B12" s="209"/>
+      <c r="C12" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="188"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="46" t="s">
         <v>59</v>
       </c>
@@ -10291,25 +11022,25 @@
         <v>4</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="196" t="s">
+      <c r="K12" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="210"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188" t="s">
+      <c r="B13" s="209"/>
+      <c r="C13" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="188"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="46" t="s">
         <v>59</v>
       </c>
@@ -10318,25 +11049,25 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="196" t="s">
+      <c r="K13" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="210"/>
+      <c r="Q13" s="210"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="209" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188" t="s">
+      <c r="B14" s="209"/>
+      <c r="C14" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="188"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="46" t="s">
         <v>62</v>
       </c>
@@ -10345,25 +11076,25 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="196" t="s">
+      <c r="K14" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="210"/>
     </row>
     <row r="15" spans="1:17" s="75" customFormat="1">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186" t="s">
+      <c r="B15" s="207"/>
+      <c r="C15" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="186"/>
+      <c r="D15" s="207"/>
       <c r="E15" s="73" t="s">
         <v>59</v>
       </c>
@@ -10372,25 +11103,25 @@
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="187" t="s">
+      <c r="K15" s="208" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="208"/>
     </row>
     <row r="16" spans="1:17" s="75" customFormat="1">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="207" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186" t="s">
+      <c r="B16" s="207"/>
+      <c r="C16" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="186"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="73" t="s">
         <v>59</v>
       </c>
@@ -10399,25 +11130,25 @@
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
-      <c r="K16" s="187" t="s">
+      <c r="K16" s="208" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="187"/>
-      <c r="Q16" s="187"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="208"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="208"/>
     </row>
     <row r="17" spans="1:17" s="75" customFormat="1">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="207" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186" t="s">
+      <c r="B17" s="207"/>
+      <c r="C17" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="186"/>
+      <c r="D17" s="207"/>
       <c r="E17" s="73" t="s">
         <v>59</v>
       </c>
@@ -10426,25 +11157,25 @@
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="187" t="s">
+      <c r="K17" s="208" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="187"/>
-      <c r="Q17" s="187"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="208"/>
     </row>
     <row r="18" spans="1:17" s="75" customFormat="1">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186" t="s">
+      <c r="B18" s="207"/>
+      <c r="C18" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="186"/>
+      <c r="D18" s="207"/>
       <c r="E18" s="73" t="s">
         <v>59</v>
       </c>
@@ -10453,25 +11184,25 @@
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="187" t="s">
+      <c r="K18" s="208" t="s">
         <v>227</v>
       </c>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="208"/>
     </row>
     <row r="19" spans="1:17" s="75" customFormat="1">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186" t="s">
+      <c r="B19" s="207"/>
+      <c r="C19" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="186"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="73" t="s">
         <v>59</v>
       </c>
@@ -10480,25 +11211,25 @@
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
-      <c r="K19" s="187" t="s">
+      <c r="K19" s="208" t="s">
         <v>228</v>
       </c>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="187"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="208"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="208"/>
     </row>
     <row r="20" spans="1:17" s="75" customFormat="1">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186" t="s">
+      <c r="B20" s="207"/>
+      <c r="C20" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="186"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="73" t="s">
         <v>59</v>
       </c>
@@ -10507,25 +11238,25 @@
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
-      <c r="K20" s="187" t="s">
+      <c r="K20" s="208" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="187"/>
-      <c r="Q20" s="187"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="208"/>
     </row>
     <row r="21" spans="1:17" s="75" customFormat="1">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186" t="s">
+      <c r="B21" s="207"/>
+      <c r="C21" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="186"/>
+      <c r="D21" s="207"/>
       <c r="E21" s="73" t="s">
         <v>59</v>
       </c>
@@ -10534,60 +11265,18 @@
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
-      <c r="K21" s="187" t="s">
+      <c r="K21" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="187"/>
-      <c r="Q21" s="187"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="208"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="K21:Q21"/>
@@ -10604,6 +11293,48 @@
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10629,27 +11360,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="190" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="259" t="str">
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="261"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -10664,24 +11395,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="190" t="s">
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193" t="str">
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="218" t="str">
         <f>表紙!H15</f>
         <v>徴収簿</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="220"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -10696,566 +11427,547 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="41"/>
-      <c r="C5" s="197" t="s">
+      <c r="C5" s="221" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="199"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="223"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="224" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="202"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="226"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="202"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="225"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="226"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="202"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="225"/>
+      <c r="O8" s="225"/>
+      <c r="P8" s="225"/>
+      <c r="Q8" s="226"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="205"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="228"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="229"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="199"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="222"/>
+      <c r="Q10" s="223"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="202"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="42"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="202"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="225"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="226"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
-      <c r="C13" s="200" t="s">
+      <c r="C13" s="224" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="202"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="225"/>
+      <c r="Q13" s="226"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="202"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="225"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="226"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="233" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="208"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="235"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="224" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="202"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="226"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="224" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="202"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="225"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="225"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="226"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
-      <c r="C18" s="200" t="s">
+      <c r="C18" s="224" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="202"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
-      <c r="C19" s="200" t="s">
+      <c r="C19" s="224" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="202"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="225"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="226"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="224" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="202"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="226"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="202"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="226"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="224" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="202"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="226"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
-      <c r="C23" s="206" t="s">
+      <c r="C23" s="233" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="207"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="208"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="235"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="202"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="226"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="209" t="s">
+      <c r="C25" s="230" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="211"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="232"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="209" t="s">
+      <c r="C26" s="230" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="211"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="231"/>
+      <c r="N26" s="231"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="232"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="41"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="198"/>
-      <c r="P27" s="198"/>
-      <c r="Q27" s="199"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="222"/>
+      <c r="L27" s="222"/>
+      <c r="M27" s="222"/>
+      <c r="N27" s="222"/>
+      <c r="O27" s="222"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="223"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="200" t="s">
+      <c r="C28" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="202"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="225"/>
+      <c r="O28" s="225"/>
+      <c r="P28" s="225"/>
+      <c r="Q28" s="226"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="204"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="205"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="228"/>
+      <c r="N29" s="228"/>
+      <c r="O29" s="228"/>
+      <c r="P29" s="228"/>
+      <c r="Q29" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -11269,6 +11981,25 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11705,25 +12436,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="219"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222" t="s">
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="241" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="220"/>
-      <c r="K1" s="221"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -11733,27 +12464,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="224" t="s">
+      <c r="D2" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226" t="s">
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="245" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="244"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -11761,46 +12492,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="227"/>
-      <c r="P2" s="225"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="244"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="230"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="237"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="256"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -11841,10 +12572,10 @@
       <c r="K6" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="238" t="s">
+      <c r="L6" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="239"/>
+      <c r="M6" s="258"/>
       <c r="N6" s="143" t="s">
         <v>114</v>
       </c>
@@ -11877,10 +12608,10 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
-      <c r="L7" s="214" t="s">
+      <c r="L7" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="215"/>
+      <c r="M7" s="237"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -11908,10 +12639,10 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
-      <c r="L8" s="214" t="s">
+      <c r="L8" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="215"/>
+      <c r="M8" s="237"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -11935,10 +12666,10 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="214" t="s">
+      <c r="L9" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="215"/>
+      <c r="M9" s="237"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -11966,10 +12697,10 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="214" t="s">
+      <c r="L10" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="215"/>
+      <c r="M10" s="237"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -11993,10 +12724,10 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="214" t="s">
+      <c r="L11" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="215"/>
+      <c r="M11" s="237"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -12024,10 +12755,10 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="214" t="s">
+      <c r="L12" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="215"/>
+      <c r="M12" s="237"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -12051,10 +12782,10 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="214" t="s">
+      <c r="L13" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="215"/>
+      <c r="M13" s="237"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -12078,10 +12809,10 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="214" t="s">
+      <c r="L14" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="215"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -12105,10 +12836,10 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="214" t="s">
+      <c r="L15" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="215"/>
+      <c r="M15" s="237"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -12132,10 +12863,10 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="214" t="s">
+      <c r="L16" s="236" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="215"/>
+      <c r="M16" s="237"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -12159,10 +12890,10 @@
       <c r="I17" s="106"/>
       <c r="J17" s="105"/>
       <c r="K17" s="105"/>
-      <c r="L17" s="214" t="s">
+      <c r="L17" s="236" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="215"/>
+      <c r="M17" s="237"/>
       <c r="N17" s="109"/>
       <c r="O17" s="105"/>
       <c r="P17" s="110"/>
@@ -12186,10 +12917,10 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
-      <c r="L18" s="214" t="s">
+      <c r="L18" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="M18" s="215"/>
+      <c r="M18" s="237"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -12213,10 +12944,10 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
-      <c r="L19" s="214" t="s">
+      <c r="L19" s="236" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="215"/>
+      <c r="M19" s="237"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -12240,10 +12971,10 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="105"/>
-      <c r="L20" s="214" t="s">
+      <c r="L20" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="M20" s="215"/>
+      <c r="M20" s="237"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -12267,10 +12998,10 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="105"/>
-      <c r="L21" s="214" t="s">
+      <c r="L21" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="215"/>
+      <c r="M21" s="237"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -12294,10 +13025,10 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="105"/>
-      <c r="L22" s="214" t="s">
+      <c r="L22" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="215"/>
+      <c r="M22" s="237"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -12321,10 +13052,10 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="105"/>
-      <c r="L23" s="216" t="s">
+      <c r="L23" s="261" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="216"/>
+      <c r="M23" s="261"/>
       <c r="N23" s="105" t="s">
         <v>276</v>
       </c>
@@ -12350,10 +13081,10 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
-      <c r="L24" s="216" t="s">
+      <c r="L24" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="216"/>
+      <c r="M24" s="261"/>
       <c r="N24" s="105"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -12377,10 +13108,10 @@
       <c r="I25" s="106"/>
       <c r="J25" s="105"/>
       <c r="K25" s="105"/>
-      <c r="L25" s="216" t="s">
+      <c r="L25" s="261" t="s">
         <v>153</v>
       </c>
-      <c r="M25" s="216"/>
+      <c r="M25" s="261"/>
       <c r="N25" s="105"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -12404,8 +13135,8 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
-      <c r="L26" s="216"/>
-      <c r="M26" s="216"/>
+      <c r="L26" s="261"/>
+      <c r="M26" s="261"/>
       <c r="N26" s="105"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -12429,10 +13160,10 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="141"/>
-      <c r="L27" s="217" t="s">
+      <c r="L27" s="262" t="s">
         <v>269</v>
       </c>
-      <c r="M27" s="218"/>
+      <c r="M27" s="263"/>
       <c r="N27" s="130"/>
       <c r="O27" s="130"/>
       <c r="P27" s="128"/>
@@ -12455,16 +13186,35 @@
       <c r="I28" s="136"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="L28" s="212" t="s">
+      <c r="L28" s="259" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="213"/>
+      <c r="M28" s="260"/>
       <c r="N28" s="134"/>
       <c r="O28" s="134"/>
       <c r="P28" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -12478,25 +13228,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13070,25 +13801,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="219"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222" t="s">
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="241" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="220"/>
-      <c r="K1" s="221"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13098,27 +13829,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="224" t="s">
+      <c r="D2" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226" t="s">
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="245" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="244"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -13128,46 +13859,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="227"/>
-      <c r="P2" s="225"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="244"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="230"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="237"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="256"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -13208,10 +13939,10 @@
       <c r="K6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="244" t="s">
+      <c r="L6" s="264" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="245"/>
+      <c r="M6" s="265"/>
       <c r="N6" s="95" t="s">
         <v>114</v>
       </c>
@@ -13244,10 +13975,10 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="246" t="s">
+      <c r="L7" s="266" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="247"/>
+      <c r="M7" s="267"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -13274,10 +14005,10 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="109"/>
-      <c r="L8" s="240" t="s">
+      <c r="L8" s="268" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="241"/>
+      <c r="M8" s="269"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -13300,10 +14031,10 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="109"/>
-      <c r="L9" s="240" t="s">
+      <c r="L9" s="268" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="241"/>
+      <c r="M9" s="269"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -13330,10 +14061,10 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="109"/>
-      <c r="L10" s="240">
+      <c r="L10" s="268">
         <v>3</v>
       </c>
-      <c r="M10" s="241"/>
+      <c r="M10" s="269"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -13356,10 +14087,10 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="109"/>
-      <c r="L11" s="248" t="s">
+      <c r="L11" s="270" t="s">
         <v>272</v>
       </c>
-      <c r="M11" s="249"/>
+      <c r="M11" s="271"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -13386,10 +14117,10 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="109"/>
-      <c r="L12" s="240" t="s">
+      <c r="L12" s="268" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="241"/>
+      <c r="M12" s="269"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -13412,10 +14143,10 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="109"/>
-      <c r="L13" s="214" t="s">
+      <c r="L13" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="M13" s="215"/>
+      <c r="M13" s="237"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -13438,10 +14169,10 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="109"/>
-      <c r="L14" s="214" t="s">
+      <c r="L14" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="215"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -13464,10 +14195,10 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="109"/>
-      <c r="L15" s="214" t="s">
+      <c r="L15" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="215"/>
+      <c r="M15" s="237"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -13490,10 +14221,10 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="109"/>
-      <c r="L16" s="214" t="s">
+      <c r="L16" s="236" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="215"/>
+      <c r="M16" s="237"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -13516,10 +14247,10 @@
       <c r="I17" s="106"/>
       <c r="J17" s="105"/>
       <c r="K17" s="109"/>
-      <c r="L17" s="214" t="s">
+      <c r="L17" s="236" t="s">
         <v>172</v>
       </c>
-      <c r="M17" s="215"/>
+      <c r="M17" s="237"/>
       <c r="N17" s="109"/>
       <c r="O17" s="105"/>
       <c r="P17" s="110"/>
@@ -13542,10 +14273,10 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="109"/>
-      <c r="L18" s="240" t="s">
+      <c r="L18" s="268" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="241"/>
+      <c r="M18" s="269"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -13568,10 +14299,10 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="240" t="s">
+      <c r="L19" s="268" t="s">
         <v>193</v>
       </c>
-      <c r="M19" s="241"/>
+      <c r="M19" s="269"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -13594,10 +14325,10 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="109"/>
-      <c r="L20" s="240" t="s">
+      <c r="L20" s="268" t="s">
         <v>194</v>
       </c>
-      <c r="M20" s="241"/>
+      <c r="M20" s="269"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -13620,10 +14351,10 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="109"/>
-      <c r="L21" s="240" t="s">
+      <c r="L21" s="268" t="s">
         <v>196</v>
       </c>
-      <c r="M21" s="241"/>
+      <c r="M21" s="269"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -13646,10 +14377,10 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="109"/>
-      <c r="L22" s="242" t="s">
+      <c r="L22" s="272" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="243"/>
+      <c r="M22" s="273"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -13672,10 +14403,10 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="109"/>
-      <c r="L23" s="214" t="s">
+      <c r="L23" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="M23" s="215"/>
+      <c r="M23" s="237"/>
       <c r="N23" s="109"/>
       <c r="O23" s="105"/>
       <c r="P23" s="110"/>
@@ -13698,10 +14429,10 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="109"/>
-      <c r="L24" s="242" t="s">
+      <c r="L24" s="272" t="s">
         <v>201</v>
       </c>
-      <c r="M24" s="243"/>
+      <c r="M24" s="273"/>
       <c r="N24" s="109"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -13724,10 +14455,10 @@
       <c r="I25" s="129"/>
       <c r="J25" s="129"/>
       <c r="K25" s="141"/>
-      <c r="L25" s="217" t="s">
+      <c r="L25" s="262" t="s">
         <v>202</v>
       </c>
-      <c r="M25" s="218"/>
+      <c r="M25" s="263"/>
       <c r="N25" s="130"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -13750,10 +14481,10 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="109"/>
-      <c r="L26" s="214" t="s">
+      <c r="L26" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="M26" s="215"/>
+      <c r="M26" s="237"/>
       <c r="N26" s="109"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -13776,10 +14507,10 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="141"/>
-      <c r="L27" s="217" t="s">
+      <c r="L27" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="M27" s="218"/>
+      <c r="M27" s="263"/>
       <c r="N27" s="130"/>
       <c r="O27" s="105"/>
       <c r="P27" s="110"/>
@@ -13802,10 +14533,10 @@
       <c r="I28" s="129"/>
       <c r="J28" s="129"/>
       <c r="K28" s="141"/>
-      <c r="L28" s="214" t="s">
+      <c r="L28" s="236" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="215"/>
+      <c r="M28" s="237"/>
       <c r="N28" s="130"/>
       <c r="O28" s="105"/>
       <c r="P28" s="110"/>
@@ -13828,10 +14559,10 @@
       <c r="I29" s="106"/>
       <c r="J29" s="105"/>
       <c r="K29" s="109"/>
-      <c r="L29" s="214" t="s">
+      <c r="L29" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="M29" s="215"/>
+      <c r="M29" s="237"/>
       <c r="N29" s="109"/>
       <c r="O29" s="105"/>
       <c r="P29" s="110"/>
@@ -13854,10 +14585,10 @@
       <c r="I30" s="129"/>
       <c r="J30" s="129"/>
       <c r="K30" s="141"/>
-      <c r="L30" s="214" t="s">
+      <c r="L30" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="M30" s="215"/>
+      <c r="M30" s="237"/>
       <c r="N30" s="130" t="s">
         <v>267</v>
       </c>
@@ -13882,10 +14613,10 @@
       <c r="I31" s="129"/>
       <c r="J31" s="129"/>
       <c r="K31" s="141"/>
-      <c r="L31" s="217" t="s">
+      <c r="L31" s="262" t="s">
         <v>207</v>
       </c>
-      <c r="M31" s="218"/>
+      <c r="M31" s="263"/>
       <c r="N31" s="130"/>
       <c r="O31" s="105"/>
       <c r="P31" s="110"/>
@@ -13908,8 +14639,8 @@
       <c r="I32" s="106"/>
       <c r="J32" s="105"/>
       <c r="K32" s="109"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="215"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="237"/>
       <c r="N32" s="105"/>
       <c r="O32" s="105"/>
       <c r="P32" s="110"/>
@@ -13932,10 +14663,10 @@
       <c r="I33" s="129"/>
       <c r="J33" s="129"/>
       <c r="K33" s="141"/>
-      <c r="L33" s="217" t="s">
+      <c r="L33" s="262" t="s">
         <v>269</v>
       </c>
-      <c r="M33" s="218"/>
+      <c r="M33" s="263"/>
       <c r="N33" s="130"/>
       <c r="O33" s="130"/>
       <c r="P33" s="128"/>
@@ -13958,23 +14689,35 @@
       <c r="I34" s="136"/>
       <c r="J34" s="136"/>
       <c r="K34" s="137"/>
-      <c r="L34" s="212" t="s">
+      <c r="L34" s="259" t="s">
         <v>270</v>
       </c>
-      <c r="M34" s="213"/>
+      <c r="M34" s="260"/>
       <c r="N34" s="134"/>
       <c r="O34" s="134"/>
       <c r="P34" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -13987,25 +14730,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/市場_2025改修/詳細設計_2025/4_詳細設計書(徴収簿).xlsx
+++ b/市場_2025改修/詳細設計_2025/4_詳細設計書(徴収簿).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF2534-0D0E-4233-8223-1AFFE3B40AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85818A67-FC2B-4702-8244-417DB42970CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="810" windowWidth="22095" windowHeight="14385" firstSheet="4" activeTab="12" xr2:uid="{C5382582-6CE6-4D26-BB83-68802CC4ED52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{C5382582-6CE6-4D26-BB83-68802CC4ED52}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="305">
   <si>
     <t>作成者</t>
   </si>
@@ -2636,6 +2636,33 @@
   <si>
     <t>テナントコード</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>売上高割金額</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>?1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナント名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="31"/>
   </si>
 </sst>
 </file>
@@ -2648,7 +2675,7 @@
     <numFmt numFmtId="178" formatCode="@&quot;頁&quot;"/>
     <numFmt numFmtId="179" formatCode="@&quot;件&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -2856,6 +2883,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3514,7 +3554,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3992,6 +4032,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4007,44 +4056,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4066,45 +4145,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4171,6 +4211,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4180,14 +4229,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4195,6 +4241,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4258,20 +4313,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4286,22 +4338,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4315,11 +4361,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6156,6 +6202,170 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B430D0D-8A6A-E047-6F7D-BEEB49D49FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1457325" y="1285875"/>
+          <a:ext cx="676275" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2682C72E-7C01-EE64-EEE7-32FD9208AC23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4667250" y="1257300"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90A6CCF-966D-481C-B6FC-0A29FC4DA865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3057525" y="1181100"/>
+          <a:ext cx="1266825" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6839,50 +7049,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="174" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="173"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="176"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="169" t="s">
+      <c r="D8" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -6905,10 +7115,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="168"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="176"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -6931,42 +7141,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="168"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="167" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="168"/>
-      <c r="H15" s="174" t="s">
+      <c r="H15" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="167" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="168"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="167" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="168"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
       <c r="N17" s="7" t="s">
         <v>26</v>
       </c>
@@ -6996,6 +7206,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -7004,12 +7220,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,25 +7677,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="243"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="241" t="s">
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -7495,27 +7705,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="243" t="s">
+      <c r="D2" s="248" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="245" t="s">
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="250" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="243"/>
-      <c r="K2" s="244"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -7523,46 +7733,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="P2" s="244"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="249"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="252" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="258"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A4" s="249"/>
-      <c r="B4" s="250"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="256"/>
+      <c r="A4" s="254"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="261"/>
     </row>
     <row r="5" spans="1:20" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -7603,10 +7813,10 @@
       <c r="K6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="264" t="s">
+      <c r="L6" s="268" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="265"/>
+      <c r="M6" s="269"/>
       <c r="N6" s="95" t="s">
         <v>114</v>
       </c>
@@ -7646,8 +7856,8 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="277"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="279"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -7682,8 +7892,8 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="275"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="277"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -7714,8 +7924,8 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="274"/>
-      <c r="M9" s="275"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="277"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -7750,8 +7960,8 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="237"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="239"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -7782,8 +7992,8 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="237"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="239"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -7818,8 +8028,8 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="237"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="239"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -7850,8 +8060,8 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="237"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="239"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -7882,8 +8092,8 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="237"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="239"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -7914,8 +8124,8 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="237"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -7946,8 +8156,8 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="236"/>
-      <c r="M16" s="237"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -8010,8 +8220,8 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="237"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="239"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -8042,8 +8252,8 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="237"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="239"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -8074,8 +8284,8 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="105"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="237"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="239"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -8106,8 +8316,8 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="105"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="237"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="239"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -8138,8 +8348,8 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="105"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="237"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="239"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -8170,8 +8380,8 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="105"/>
-      <c r="L23" s="236"/>
-      <c r="M23" s="237"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="239"/>
       <c r="N23" s="109"/>
       <c r="O23" s="105"/>
       <c r="P23" s="110"/>
@@ -8202,8 +8412,8 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
-      <c r="L24" s="236"/>
-      <c r="M24" s="237"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="239"/>
       <c r="N24" s="109"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -8234,8 +8444,8 @@
       <c r="I25" s="106"/>
       <c r="J25" s="105"/>
       <c r="K25" s="105"/>
-      <c r="L25" s="236"/>
-      <c r="M25" s="237"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="239"/>
       <c r="N25" s="109"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -8268,8 +8478,8 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
-      <c r="L26" s="261"/>
-      <c r="M26" s="261"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="240"/>
       <c r="N26" s="105"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -8300,8 +8510,8 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="261"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="240"/>
       <c r="N27" s="130"/>
       <c r="O27" s="105"/>
       <c r="P27" s="110"/>
@@ -8332,8 +8542,8 @@
       <c r="I28" s="106"/>
       <c r="J28" s="105"/>
       <c r="K28" s="105"/>
-      <c r="L28" s="261"/>
-      <c r="M28" s="261"/>
+      <c r="L28" s="240"/>
+      <c r="M28" s="240"/>
       <c r="N28" s="105"/>
       <c r="O28" s="105"/>
       <c r="P28" s="110"/>
@@ -8360,8 +8570,8 @@
       <c r="I29" s="129"/>
       <c r="J29" s="129"/>
       <c r="K29" s="129"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="237"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="239"/>
       <c r="N29" s="130"/>
       <c r="O29" s="130"/>
       <c r="P29" s="128"/>
@@ -8389,8 +8599,8 @@
       <c r="I30" s="136"/>
       <c r="J30" s="136"/>
       <c r="K30" s="136"/>
-      <c r="L30" s="278"/>
-      <c r="M30" s="279"/>
+      <c r="L30" s="274"/>
+      <c r="M30" s="275"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
       <c r="P30" s="138"/>
@@ -8410,26 +8620,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -8443,6 +8633,26 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8453,17 +8663,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FEE930-0ABA-4792-AA65-E34F40E8BC41}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="47" customWidth="1"/>
     <col min="6" max="6" width="32.25" style="47" customWidth="1"/>
     <col min="7" max="16384" width="9" style="47"/>
@@ -8521,8 +8731,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="56" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="53">
-        <v>21001</v>
+      <c r="A6" s="281" t="s">
+        <v>303</v>
       </c>
       <c r="B6" s="53">
         <v>1001</v>
@@ -8550,10 +8760,30 @@
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
     </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="148" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="280"/>
+      <c r="D14" s="280"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8561,7 +8791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE66341-43AE-4651-B03A-2EA64A79EE12}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -8812,52 +9042,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="186" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -8883,443 +9113,443 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="180">
+      <c r="B5" s="182">
         <v>45001</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181" t="s">
+      <c r="C5" s="182"/>
+      <c r="D5" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182" t="s">
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="178">
+      <c r="B6" s="184">
         <v>45835</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179" t="s">
+      <c r="E6" s="185"/>
+      <c r="F6" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="177" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="179" t="s">
         <v>292</v>
       </c>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="177"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="177"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="179"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="177"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="179"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="179"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="179"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="179"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="179"/>
+      <c r="R16" s="179"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="177"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="177"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="179"/>
+      <c r="Q20" s="179"/>
+      <c r="R20" s="179"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="179"/>
+      <c r="R21" s="179"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="179"/>
+      <c r="R22" s="179"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -9330,30 +9560,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -9370,46 +9616,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -9435,217 +9665,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="198" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="204" t="str">
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="188" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
-      <c r="AD1" s="205"/>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="202" t="s">
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
+      <c r="AJ1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="202"/>
-      <c r="AN1" s="202"/>
-      <c r="AO1" s="197" t="s">
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="202" t="s">
+      <c r="AP1" s="192"/>
+      <c r="AQ1" s="192"/>
+      <c r="AR1" s="192"/>
+      <c r="AS1" s="192"/>
+      <c r="AT1" s="192"/>
+      <c r="AU1" s="192"/>
+      <c r="AV1" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="202"/>
-      <c r="AX1" s="202"/>
-      <c r="AY1" s="202"/>
-      <c r="AZ1" s="202"/>
-      <c r="BA1" s="197" t="s">
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="192" t="s">
         <v>290</v>
       </c>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
+      <c r="BB1" s="192"/>
+      <c r="BC1" s="192"/>
+      <c r="BD1" s="192"/>
+      <c r="BE1" s="192"/>
+      <c r="BF1" s="192"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="198" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="199" t="str">
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="193" t="str">
         <f>表紙!H15</f>
         <v>徴収簿</v>
       </c>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="202"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="202"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="203">
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="191"/>
+      <c r="AN2" s="191"/>
+      <c r="AO2" s="196">
         <v>44752</v>
       </c>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="202" t="s">
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="192"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="192"/>
+      <c r="AV2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="203">
+      <c r="AW2" s="191"/>
+      <c r="AX2" s="191"/>
+      <c r="AY2" s="191"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="196">
         <v>45835</v>
       </c>
-      <c r="BB2" s="197"/>
-      <c r="BC2" s="197"/>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="197"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="192"/>
+      <c r="BD2" s="192"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="192"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="195"/>
-      <c r="AJ3" s="195"/>
-      <c r="AK3" s="195"/>
-      <c r="AL3" s="195"/>
-      <c r="AM3" s="195"/>
-      <c r="AN3" s="196"/>
-      <c r="AO3" s="194" t="s">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="198"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="198"/>
+      <c r="AJ3" s="198"/>
+      <c r="AK3" s="198"/>
+      <c r="AL3" s="198"/>
+      <c r="AM3" s="198"/>
+      <c r="AN3" s="199"/>
+      <c r="AO3" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="195"/>
-      <c r="AQ3" s="195"/>
-      <c r="AR3" s="195"/>
-      <c r="AS3" s="195"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="195"/>
-      <c r="AV3" s="195"/>
-      <c r="AW3" s="195"/>
-      <c r="AX3" s="195"/>
-      <c r="AY3" s="195"/>
-      <c r="AZ3" s="195"/>
-      <c r="BA3" s="195"/>
-      <c r="BB3" s="195"/>
-      <c r="BC3" s="195"/>
-      <c r="BD3" s="195"/>
-      <c r="BE3" s="195"/>
-      <c r="BF3" s="196"/>
+      <c r="AP3" s="198"/>
+      <c r="AQ3" s="198"/>
+      <c r="AR3" s="198"/>
+      <c r="AS3" s="198"/>
+      <c r="AT3" s="198"/>
+      <c r="AU3" s="198"/>
+      <c r="AV3" s="198"/>
+      <c r="AW3" s="198"/>
+      <c r="AX3" s="198"/>
+      <c r="AY3" s="198"/>
+      <c r="AZ3" s="198"/>
+      <c r="BA3" s="198"/>
+      <c r="BB3" s="198"/>
+      <c r="BC3" s="198"/>
+      <c r="BD3" s="198"/>
+      <c r="BE3" s="198"/>
+      <c r="BF3" s="199"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -9656,674 +9886,674 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="187" t="s">
+      <c r="AO5" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="177"/>
-      <c r="AQ5" s="177"/>
-      <c r="AR5" s="177"/>
-      <c r="AS5" s="177"/>
-      <c r="AT5" s="177"/>
-      <c r="AU5" s="188" t="s">
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="201" t="s">
         <v>230</v>
       </c>
-      <c r="AV5" s="188"/>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="188"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="188"/>
-      <c r="BA5" s="188"/>
-      <c r="BB5" s="188"/>
-      <c r="BC5" s="188"/>
-      <c r="BD5" s="188"/>
-      <c r="BE5" s="188"/>
-      <c r="BF5" s="189"/>
+      <c r="AV5" s="201"/>
+      <c r="AW5" s="201"/>
+      <c r="AX5" s="201"/>
+      <c r="AY5" s="201"/>
+      <c r="AZ5" s="201"/>
+      <c r="BA5" s="201"/>
+      <c r="BB5" s="201"/>
+      <c r="BC5" s="201"/>
+      <c r="BD5" s="201"/>
+      <c r="BE5" s="201"/>
+      <c r="BF5" s="202"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="187"/>
-      <c r="AP6" s="177"/>
-      <c r="AQ6" s="177"/>
-      <c r="AR6" s="177"/>
-      <c r="AS6" s="177"/>
-      <c r="AT6" s="177"/>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="188"/>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="188"/>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="188"/>
-      <c r="BC6" s="188"/>
-      <c r="BD6" s="188"/>
-      <c r="BE6" s="188"/>
-      <c r="BF6" s="189"/>
+      <c r="AO6" s="200"/>
+      <c r="AP6" s="179"/>
+      <c r="AQ6" s="179"/>
+      <c r="AR6" s="179"/>
+      <c r="AS6" s="179"/>
+      <c r="AT6" s="179"/>
+      <c r="AU6" s="201"/>
+      <c r="AV6" s="201"/>
+      <c r="AW6" s="201"/>
+      <c r="AX6" s="201"/>
+      <c r="AY6" s="201"/>
+      <c r="AZ6" s="201"/>
+      <c r="BA6" s="201"/>
+      <c r="BB6" s="201"/>
+      <c r="BC6" s="201"/>
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="201"/>
+      <c r="BF6" s="202"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="187" t="s">
+      <c r="AO7" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177"/>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="188" t="s">
+      <c r="AP7" s="179"/>
+      <c r="AQ7" s="179"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="179"/>
+      <c r="AT7" s="179"/>
+      <c r="AU7" s="201" t="s">
         <v>231</v>
       </c>
-      <c r="AV7" s="188"/>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="188"/>
-      <c r="BA7" s="188"/>
-      <c r="BB7" s="188"/>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="188"/>
-      <c r="BE7" s="188"/>
-      <c r="BF7" s="189"/>
+      <c r="AV7" s="201"/>
+      <c r="AW7" s="201"/>
+      <c r="AX7" s="201"/>
+      <c r="AY7" s="201"/>
+      <c r="AZ7" s="201"/>
+      <c r="BA7" s="201"/>
+      <c r="BB7" s="201"/>
+      <c r="BC7" s="201"/>
+      <c r="BD7" s="201"/>
+      <c r="BE7" s="201"/>
+      <c r="BF7" s="202"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="187"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="177"/>
-      <c r="AU8" s="188"/>
-      <c r="AV8" s="188"/>
-      <c r="AW8" s="188"/>
-      <c r="AX8" s="188"/>
-      <c r="AY8" s="188"/>
-      <c r="AZ8" s="188"/>
-      <c r="BA8" s="188"/>
-      <c r="BB8" s="188"/>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="188"/>
-      <c r="BE8" s="188"/>
-      <c r="BF8" s="189"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="179"/>
+      <c r="AR8" s="179"/>
+      <c r="AS8" s="179"/>
+      <c r="AT8" s="179"/>
+      <c r="AU8" s="201"/>
+      <c r="AV8" s="201"/>
+      <c r="AW8" s="201"/>
+      <c r="AX8" s="201"/>
+      <c r="AY8" s="201"/>
+      <c r="AZ8" s="201"/>
+      <c r="BA8" s="201"/>
+      <c r="BB8" s="201"/>
+      <c r="BC8" s="201"/>
+      <c r="BD8" s="201"/>
+      <c r="BE8" s="201"/>
+      <c r="BF8" s="202"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="187" t="s">
+      <c r="AO9" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="AP9" s="177"/>
-      <c r="AQ9" s="177"/>
-      <c r="AR9" s="177"/>
-      <c r="AS9" s="177"/>
-      <c r="AT9" s="177"/>
-      <c r="AU9" s="188" t="s">
+      <c r="AP9" s="179"/>
+      <c r="AQ9" s="179"/>
+      <c r="AR9" s="179"/>
+      <c r="AS9" s="179"/>
+      <c r="AT9" s="179"/>
+      <c r="AU9" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="AV9" s="188"/>
-      <c r="AW9" s="188"/>
-      <c r="AX9" s="188"/>
-      <c r="AY9" s="188"/>
-      <c r="AZ9" s="188"/>
-      <c r="BA9" s="188"/>
-      <c r="BB9" s="188"/>
-      <c r="BC9" s="188"/>
-      <c r="BD9" s="188"/>
-      <c r="BE9" s="188"/>
-      <c r="BF9" s="189"/>
+      <c r="AV9" s="201"/>
+      <c r="AW9" s="201"/>
+      <c r="AX9" s="201"/>
+      <c r="AY9" s="201"/>
+      <c r="AZ9" s="201"/>
+      <c r="BA9" s="201"/>
+      <c r="BB9" s="201"/>
+      <c r="BC9" s="201"/>
+      <c r="BD9" s="201"/>
+      <c r="BE9" s="201"/>
+      <c r="BF9" s="202"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="187"/>
-      <c r="AP10" s="177"/>
-      <c r="AQ10" s="177"/>
-      <c r="AR10" s="177"/>
-      <c r="AS10" s="177"/>
-      <c r="AT10" s="177"/>
-      <c r="AU10" s="188"/>
-      <c r="AV10" s="188"/>
-      <c r="AW10" s="188"/>
-      <c r="AX10" s="188"/>
-      <c r="AY10" s="188"/>
-      <c r="AZ10" s="188"/>
-      <c r="BA10" s="188"/>
-      <c r="BB10" s="188"/>
-      <c r="BC10" s="188"/>
-      <c r="BD10" s="188"/>
-      <c r="BE10" s="188"/>
-      <c r="BF10" s="189"/>
+      <c r="AO10" s="200"/>
+      <c r="AP10" s="179"/>
+      <c r="AQ10" s="179"/>
+      <c r="AR10" s="179"/>
+      <c r="AS10" s="179"/>
+      <c r="AT10" s="179"/>
+      <c r="AU10" s="201"/>
+      <c r="AV10" s="201"/>
+      <c r="AW10" s="201"/>
+      <c r="AX10" s="201"/>
+      <c r="AY10" s="201"/>
+      <c r="AZ10" s="201"/>
+      <c r="BA10" s="201"/>
+      <c r="BB10" s="201"/>
+      <c r="BC10" s="201"/>
+      <c r="BD10" s="201"/>
+      <c r="BE10" s="201"/>
+      <c r="BF10" s="202"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="187" t="s">
+      <c r="AO11" s="200" t="s">
         <v>232</v>
       </c>
-      <c r="AP11" s="177"/>
-      <c r="AQ11" s="177"/>
-      <c r="AR11" s="177"/>
-      <c r="AS11" s="177"/>
-      <c r="AT11" s="177"/>
-      <c r="AU11" s="188" t="s">
+      <c r="AP11" s="179"/>
+      <c r="AQ11" s="179"/>
+      <c r="AR11" s="179"/>
+      <c r="AS11" s="179"/>
+      <c r="AT11" s="179"/>
+      <c r="AU11" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="AV11" s="188"/>
-      <c r="AW11" s="188"/>
-      <c r="AX11" s="188"/>
-      <c r="AY11" s="188"/>
-      <c r="AZ11" s="188"/>
-      <c r="BA11" s="188"/>
-      <c r="BB11" s="188"/>
-      <c r="BC11" s="188"/>
-      <c r="BD11" s="188"/>
-      <c r="BE11" s="188"/>
-      <c r="BF11" s="189"/>
+      <c r="AV11" s="201"/>
+      <c r="AW11" s="201"/>
+      <c r="AX11" s="201"/>
+      <c r="AY11" s="201"/>
+      <c r="AZ11" s="201"/>
+      <c r="BA11" s="201"/>
+      <c r="BB11" s="201"/>
+      <c r="BC11" s="201"/>
+      <c r="BD11" s="201"/>
+      <c r="BE11" s="201"/>
+      <c r="BF11" s="202"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="187"/>
-      <c r="AP12" s="177"/>
-      <c r="AQ12" s="177"/>
-      <c r="AR12" s="177"/>
-      <c r="AS12" s="177"/>
-      <c r="AT12" s="177"/>
-      <c r="AU12" s="188"/>
-      <c r="AV12" s="188"/>
-      <c r="AW12" s="188"/>
-      <c r="AX12" s="188"/>
-      <c r="AY12" s="188"/>
-      <c r="AZ12" s="188"/>
-      <c r="BA12" s="188"/>
-      <c r="BB12" s="188"/>
-      <c r="BC12" s="188"/>
-      <c r="BD12" s="188"/>
-      <c r="BE12" s="188"/>
-      <c r="BF12" s="189"/>
+      <c r="AO12" s="200"/>
+      <c r="AP12" s="179"/>
+      <c r="AQ12" s="179"/>
+      <c r="AR12" s="179"/>
+      <c r="AS12" s="179"/>
+      <c r="AT12" s="179"/>
+      <c r="AU12" s="201"/>
+      <c r="AV12" s="201"/>
+      <c r="AW12" s="201"/>
+      <c r="AX12" s="201"/>
+      <c r="AY12" s="201"/>
+      <c r="AZ12" s="201"/>
+      <c r="BA12" s="201"/>
+      <c r="BB12" s="201"/>
+      <c r="BC12" s="201"/>
+      <c r="BD12" s="201"/>
+      <c r="BE12" s="201"/>
+      <c r="BF12" s="202"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="187" t="s">
+      <c r="AO13" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="AP13" s="177"/>
-      <c r="AQ13" s="177"/>
-      <c r="AR13" s="177"/>
-      <c r="AS13" s="177"/>
-      <c r="AT13" s="177"/>
-      <c r="AU13" s="188" t="s">
+      <c r="AP13" s="179"/>
+      <c r="AQ13" s="179"/>
+      <c r="AR13" s="179"/>
+      <c r="AS13" s="179"/>
+      <c r="AT13" s="179"/>
+      <c r="AU13" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="AV13" s="188"/>
-      <c r="AW13" s="188"/>
-      <c r="AX13" s="188"/>
-      <c r="AY13" s="188"/>
-      <c r="AZ13" s="188"/>
-      <c r="BA13" s="188"/>
-      <c r="BB13" s="188"/>
-      <c r="BC13" s="188"/>
-      <c r="BD13" s="188"/>
-      <c r="BE13" s="188"/>
-      <c r="BF13" s="189"/>
+      <c r="AV13" s="201"/>
+      <c r="AW13" s="201"/>
+      <c r="AX13" s="201"/>
+      <c r="AY13" s="201"/>
+      <c r="AZ13" s="201"/>
+      <c r="BA13" s="201"/>
+      <c r="BB13" s="201"/>
+      <c r="BC13" s="201"/>
+      <c r="BD13" s="201"/>
+      <c r="BE13" s="201"/>
+      <c r="BF13" s="202"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="187"/>
-      <c r="AP14" s="177"/>
-      <c r="AQ14" s="177"/>
-      <c r="AR14" s="177"/>
-      <c r="AS14" s="177"/>
-      <c r="AT14" s="177"/>
-      <c r="AU14" s="188"/>
-      <c r="AV14" s="188"/>
-      <c r="AW14" s="188"/>
-      <c r="AX14" s="188"/>
-      <c r="AY14" s="188"/>
-      <c r="AZ14" s="188"/>
-      <c r="BA14" s="188"/>
-      <c r="BB14" s="188"/>
-      <c r="BC14" s="188"/>
-      <c r="BD14" s="188"/>
-      <c r="BE14" s="188"/>
-      <c r="BF14" s="189"/>
+      <c r="AO14" s="200"/>
+      <c r="AP14" s="179"/>
+      <c r="AQ14" s="179"/>
+      <c r="AR14" s="179"/>
+      <c r="AS14" s="179"/>
+      <c r="AT14" s="179"/>
+      <c r="AU14" s="201"/>
+      <c r="AV14" s="201"/>
+      <c r="AW14" s="201"/>
+      <c r="AX14" s="201"/>
+      <c r="AY14" s="201"/>
+      <c r="AZ14" s="201"/>
+      <c r="BA14" s="201"/>
+      <c r="BB14" s="201"/>
+      <c r="BC14" s="201"/>
+      <c r="BD14" s="201"/>
+      <c r="BE14" s="201"/>
+      <c r="BF14" s="202"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="187" t="s">
+      <c r="AO15" s="200" t="s">
         <v>234</v>
       </c>
-      <c r="AP15" s="177"/>
-      <c r="AQ15" s="177"/>
-      <c r="AR15" s="177"/>
-      <c r="AS15" s="177"/>
-      <c r="AT15" s="177"/>
-      <c r="AU15" s="188" t="s">
+      <c r="AP15" s="179"/>
+      <c r="AQ15" s="179"/>
+      <c r="AR15" s="179"/>
+      <c r="AS15" s="179"/>
+      <c r="AT15" s="179"/>
+      <c r="AU15" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="AV15" s="188"/>
-      <c r="AW15" s="188"/>
-      <c r="AX15" s="188"/>
-      <c r="AY15" s="188"/>
-      <c r="AZ15" s="188"/>
-      <c r="BA15" s="188"/>
-      <c r="BB15" s="188"/>
-      <c r="BC15" s="188"/>
-      <c r="BD15" s="188"/>
-      <c r="BE15" s="188"/>
-      <c r="BF15" s="189"/>
+      <c r="AV15" s="201"/>
+      <c r="AW15" s="201"/>
+      <c r="AX15" s="201"/>
+      <c r="AY15" s="201"/>
+      <c r="AZ15" s="201"/>
+      <c r="BA15" s="201"/>
+      <c r="BB15" s="201"/>
+      <c r="BC15" s="201"/>
+      <c r="BD15" s="201"/>
+      <c r="BE15" s="201"/>
+      <c r="BF15" s="202"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="187"/>
-      <c r="AP16" s="177"/>
-      <c r="AQ16" s="177"/>
-      <c r="AR16" s="177"/>
-      <c r="AS16" s="177"/>
-      <c r="AT16" s="177"/>
-      <c r="AU16" s="188"/>
-      <c r="AV16" s="188"/>
-      <c r="AW16" s="188"/>
-      <c r="AX16" s="188"/>
-      <c r="AY16" s="188"/>
-      <c r="AZ16" s="188"/>
-      <c r="BA16" s="188"/>
-      <c r="BB16" s="188"/>
-      <c r="BC16" s="188"/>
-      <c r="BD16" s="188"/>
-      <c r="BE16" s="188"/>
-      <c r="BF16" s="189"/>
+      <c r="AO16" s="200"/>
+      <c r="AP16" s="179"/>
+      <c r="AQ16" s="179"/>
+      <c r="AR16" s="179"/>
+      <c r="AS16" s="179"/>
+      <c r="AT16" s="179"/>
+      <c r="AU16" s="201"/>
+      <c r="AV16" s="201"/>
+      <c r="AW16" s="201"/>
+      <c r="AX16" s="201"/>
+      <c r="AY16" s="201"/>
+      <c r="AZ16" s="201"/>
+      <c r="BA16" s="201"/>
+      <c r="BB16" s="201"/>
+      <c r="BC16" s="201"/>
+      <c r="BD16" s="201"/>
+      <c r="BE16" s="201"/>
+      <c r="BF16" s="202"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="187" t="s">
+      <c r="AO17" s="200" t="s">
         <v>235</v>
       </c>
-      <c r="AP17" s="177"/>
-      <c r="AQ17" s="177"/>
-      <c r="AR17" s="177"/>
-      <c r="AS17" s="177"/>
-      <c r="AT17" s="177"/>
-      <c r="AU17" s="188" t="s">
+      <c r="AP17" s="179"/>
+      <c r="AQ17" s="179"/>
+      <c r="AR17" s="179"/>
+      <c r="AS17" s="179"/>
+      <c r="AT17" s="179"/>
+      <c r="AU17" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="AV17" s="188"/>
-      <c r="AW17" s="188"/>
-      <c r="AX17" s="188"/>
-      <c r="AY17" s="188"/>
-      <c r="AZ17" s="188"/>
-      <c r="BA17" s="188"/>
-      <c r="BB17" s="188"/>
-      <c r="BC17" s="188"/>
-      <c r="BD17" s="188"/>
-      <c r="BE17" s="188"/>
-      <c r="BF17" s="189"/>
+      <c r="AV17" s="201"/>
+      <c r="AW17" s="201"/>
+      <c r="AX17" s="201"/>
+      <c r="AY17" s="201"/>
+      <c r="AZ17" s="201"/>
+      <c r="BA17" s="201"/>
+      <c r="BB17" s="201"/>
+      <c r="BC17" s="201"/>
+      <c r="BD17" s="201"/>
+      <c r="BE17" s="201"/>
+      <c r="BF17" s="202"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="187"/>
-      <c r="AP18" s="177"/>
-      <c r="AQ18" s="177"/>
-      <c r="AR18" s="177"/>
-      <c r="AS18" s="177"/>
-      <c r="AT18" s="177"/>
-      <c r="AU18" s="188"/>
-      <c r="AV18" s="188"/>
-      <c r="AW18" s="188"/>
-      <c r="AX18" s="188"/>
-      <c r="AY18" s="188"/>
-      <c r="AZ18" s="188"/>
-      <c r="BA18" s="188"/>
-      <c r="BB18" s="188"/>
-      <c r="BC18" s="188"/>
-      <c r="BD18" s="188"/>
-      <c r="BE18" s="188"/>
-      <c r="BF18" s="189"/>
+      <c r="AO18" s="200"/>
+      <c r="AP18" s="179"/>
+      <c r="AQ18" s="179"/>
+      <c r="AR18" s="179"/>
+      <c r="AS18" s="179"/>
+      <c r="AT18" s="179"/>
+      <c r="AU18" s="201"/>
+      <c r="AV18" s="201"/>
+      <c r="AW18" s="201"/>
+      <c r="AX18" s="201"/>
+      <c r="AY18" s="201"/>
+      <c r="AZ18" s="201"/>
+      <c r="BA18" s="201"/>
+      <c r="BB18" s="201"/>
+      <c r="BC18" s="201"/>
+      <c r="BD18" s="201"/>
+      <c r="BE18" s="201"/>
+      <c r="BF18" s="202"/>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="187" t="s">
+      <c r="AO19" s="200" t="s">
         <v>236</v>
       </c>
-      <c r="AP19" s="177"/>
-      <c r="AQ19" s="177"/>
-      <c r="AR19" s="177"/>
-      <c r="AS19" s="177"/>
-      <c r="AT19" s="177"/>
-      <c r="AU19" s="188" t="s">
+      <c r="AP19" s="179"/>
+      <c r="AQ19" s="179"/>
+      <c r="AR19" s="179"/>
+      <c r="AS19" s="179"/>
+      <c r="AT19" s="179"/>
+      <c r="AU19" s="201" t="s">
         <v>237</v>
       </c>
-      <c r="AV19" s="188"/>
-      <c r="AW19" s="188"/>
-      <c r="AX19" s="188"/>
-      <c r="AY19" s="188"/>
-      <c r="AZ19" s="188"/>
-      <c r="BA19" s="188"/>
-      <c r="BB19" s="188"/>
-      <c r="BC19" s="188"/>
-      <c r="BD19" s="188"/>
-      <c r="BE19" s="188"/>
-      <c r="BF19" s="189"/>
+      <c r="AV19" s="201"/>
+      <c r="AW19" s="201"/>
+      <c r="AX19" s="201"/>
+      <c r="AY19" s="201"/>
+      <c r="AZ19" s="201"/>
+      <c r="BA19" s="201"/>
+      <c r="BB19" s="201"/>
+      <c r="BC19" s="201"/>
+      <c r="BD19" s="201"/>
+      <c r="BE19" s="201"/>
+      <c r="BF19" s="202"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="187"/>
-      <c r="AP20" s="177"/>
-      <c r="AQ20" s="177"/>
-      <c r="AR20" s="177"/>
-      <c r="AS20" s="177"/>
-      <c r="AT20" s="177"/>
-      <c r="AU20" s="188"/>
-      <c r="AV20" s="188"/>
-      <c r="AW20" s="188"/>
-      <c r="AX20" s="188"/>
-      <c r="AY20" s="188"/>
-      <c r="AZ20" s="188"/>
-      <c r="BA20" s="188"/>
-      <c r="BB20" s="188"/>
-      <c r="BC20" s="188"/>
-      <c r="BD20" s="188"/>
-      <c r="BE20" s="188"/>
-      <c r="BF20" s="189"/>
+      <c r="AO20" s="200"/>
+      <c r="AP20" s="179"/>
+      <c r="AQ20" s="179"/>
+      <c r="AR20" s="179"/>
+      <c r="AS20" s="179"/>
+      <c r="AT20" s="179"/>
+      <c r="AU20" s="201"/>
+      <c r="AV20" s="201"/>
+      <c r="AW20" s="201"/>
+      <c r="AX20" s="201"/>
+      <c r="AY20" s="201"/>
+      <c r="AZ20" s="201"/>
+      <c r="BA20" s="201"/>
+      <c r="BB20" s="201"/>
+      <c r="BC20" s="201"/>
+      <c r="BD20" s="201"/>
+      <c r="BE20" s="201"/>
+      <c r="BF20" s="202"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="187" t="s">
+      <c r="AO21" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="AP21" s="177"/>
-      <c r="AQ21" s="177"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="177"/>
-      <c r="AT21" s="177"/>
-      <c r="AU21" s="188" t="s">
+      <c r="AP21" s="179"/>
+      <c r="AQ21" s="179"/>
+      <c r="AR21" s="179"/>
+      <c r="AS21" s="179"/>
+      <c r="AT21" s="179"/>
+      <c r="AU21" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="AV21" s="188"/>
-      <c r="AW21" s="188"/>
-      <c r="AX21" s="188"/>
-      <c r="AY21" s="188"/>
-      <c r="AZ21" s="188"/>
-      <c r="BA21" s="188"/>
-      <c r="BB21" s="188"/>
-      <c r="BC21" s="188"/>
-      <c r="BD21" s="188"/>
-      <c r="BE21" s="188"/>
-      <c r="BF21" s="189"/>
+      <c r="AV21" s="201"/>
+      <c r="AW21" s="201"/>
+      <c r="AX21" s="201"/>
+      <c r="AY21" s="201"/>
+      <c r="AZ21" s="201"/>
+      <c r="BA21" s="201"/>
+      <c r="BB21" s="201"/>
+      <c r="BC21" s="201"/>
+      <c r="BD21" s="201"/>
+      <c r="BE21" s="201"/>
+      <c r="BF21" s="202"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="187"/>
-      <c r="AP22" s="177"/>
-      <c r="AQ22" s="177"/>
-      <c r="AR22" s="177"/>
-      <c r="AS22" s="177"/>
-      <c r="AT22" s="177"/>
-      <c r="AU22" s="188"/>
-      <c r="AV22" s="188"/>
-      <c r="AW22" s="188"/>
-      <c r="AX22" s="188"/>
-      <c r="AY22" s="188"/>
-      <c r="AZ22" s="188"/>
-      <c r="BA22" s="188"/>
-      <c r="BB22" s="188"/>
-      <c r="BC22" s="188"/>
-      <c r="BD22" s="188"/>
-      <c r="BE22" s="188"/>
-      <c r="BF22" s="189"/>
+      <c r="AO22" s="200"/>
+      <c r="AP22" s="179"/>
+      <c r="AQ22" s="179"/>
+      <c r="AR22" s="179"/>
+      <c r="AS22" s="179"/>
+      <c r="AT22" s="179"/>
+      <c r="AU22" s="201"/>
+      <c r="AV22" s="201"/>
+      <c r="AW22" s="201"/>
+      <c r="AX22" s="201"/>
+      <c r="AY22" s="201"/>
+      <c r="AZ22" s="201"/>
+      <c r="BA22" s="201"/>
+      <c r="BB22" s="201"/>
+      <c r="BC22" s="201"/>
+      <c r="BD22" s="201"/>
+      <c r="BE22" s="201"/>
+      <c r="BF22" s="202"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="187" t="s">
+      <c r="AO23" s="200" t="s">
         <v>239</v>
       </c>
-      <c r="AP23" s="177"/>
-      <c r="AQ23" s="177"/>
-      <c r="AR23" s="177"/>
-      <c r="AS23" s="177"/>
-      <c r="AT23" s="177"/>
-      <c r="AU23" s="188" t="s">
+      <c r="AP23" s="179"/>
+      <c r="AQ23" s="179"/>
+      <c r="AR23" s="179"/>
+      <c r="AS23" s="179"/>
+      <c r="AT23" s="179"/>
+      <c r="AU23" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="AV23" s="188"/>
-      <c r="AW23" s="188"/>
-      <c r="AX23" s="188"/>
-      <c r="AY23" s="188"/>
-      <c r="AZ23" s="188"/>
-      <c r="BA23" s="188"/>
-      <c r="BB23" s="188"/>
-      <c r="BC23" s="188"/>
-      <c r="BD23" s="188"/>
-      <c r="BE23" s="188"/>
-      <c r="BF23" s="189"/>
+      <c r="AV23" s="201"/>
+      <c r="AW23" s="201"/>
+      <c r="AX23" s="201"/>
+      <c r="AY23" s="201"/>
+      <c r="AZ23" s="201"/>
+      <c r="BA23" s="201"/>
+      <c r="BB23" s="201"/>
+      <c r="BC23" s="201"/>
+      <c r="BD23" s="201"/>
+      <c r="BE23" s="201"/>
+      <c r="BF23" s="202"/>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="187"/>
-      <c r="AP24" s="177"/>
-      <c r="AQ24" s="177"/>
-      <c r="AR24" s="177"/>
-      <c r="AS24" s="177"/>
-      <c r="AT24" s="177"/>
-      <c r="AU24" s="188"/>
-      <c r="AV24" s="188"/>
-      <c r="AW24" s="188"/>
-      <c r="AX24" s="188"/>
-      <c r="AY24" s="188"/>
-      <c r="AZ24" s="188"/>
-      <c r="BA24" s="188"/>
-      <c r="BB24" s="188"/>
-      <c r="BC24" s="188"/>
-      <c r="BD24" s="188"/>
-      <c r="BE24" s="188"/>
-      <c r="BF24" s="189"/>
+      <c r="AO24" s="200"/>
+      <c r="AP24" s="179"/>
+      <c r="AQ24" s="179"/>
+      <c r="AR24" s="179"/>
+      <c r="AS24" s="179"/>
+      <c r="AT24" s="179"/>
+      <c r="AU24" s="201"/>
+      <c r="AV24" s="201"/>
+      <c r="AW24" s="201"/>
+      <c r="AX24" s="201"/>
+      <c r="AY24" s="201"/>
+      <c r="AZ24" s="201"/>
+      <c r="BA24" s="201"/>
+      <c r="BB24" s="201"/>
+      <c r="BC24" s="201"/>
+      <c r="BD24" s="201"/>
+      <c r="BE24" s="201"/>
+      <c r="BF24" s="202"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="187" t="s">
+      <c r="AO25" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="AP25" s="177"/>
-      <c r="AQ25" s="177"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="177"/>
-      <c r="AT25" s="177"/>
-      <c r="AU25" s="188" t="s">
+      <c r="AP25" s="179"/>
+      <c r="AQ25" s="179"/>
+      <c r="AR25" s="179"/>
+      <c r="AS25" s="179"/>
+      <c r="AT25" s="179"/>
+      <c r="AU25" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="AV25" s="188"/>
-      <c r="AW25" s="188"/>
-      <c r="AX25" s="188"/>
-      <c r="AY25" s="188"/>
-      <c r="AZ25" s="188"/>
-      <c r="BA25" s="188"/>
-      <c r="BB25" s="188"/>
-      <c r="BC25" s="188"/>
-      <c r="BD25" s="188"/>
-      <c r="BE25" s="188"/>
-      <c r="BF25" s="189"/>
+      <c r="AV25" s="201"/>
+      <c r="AW25" s="201"/>
+      <c r="AX25" s="201"/>
+      <c r="AY25" s="201"/>
+      <c r="AZ25" s="201"/>
+      <c r="BA25" s="201"/>
+      <c r="BB25" s="201"/>
+      <c r="BC25" s="201"/>
+      <c r="BD25" s="201"/>
+      <c r="BE25" s="201"/>
+      <c r="BF25" s="202"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="187"/>
-      <c r="AP26" s="177"/>
-      <c r="AQ26" s="177"/>
-      <c r="AR26" s="177"/>
-      <c r="AS26" s="177"/>
-      <c r="AT26" s="177"/>
-      <c r="AU26" s="188"/>
-      <c r="AV26" s="188"/>
-      <c r="AW26" s="188"/>
-      <c r="AX26" s="188"/>
-      <c r="AY26" s="188"/>
-      <c r="AZ26" s="188"/>
-      <c r="BA26" s="188"/>
-      <c r="BB26" s="188"/>
-      <c r="BC26" s="188"/>
-      <c r="BD26" s="188"/>
-      <c r="BE26" s="188"/>
-      <c r="BF26" s="189"/>
+      <c r="AO26" s="200"/>
+      <c r="AP26" s="179"/>
+      <c r="AQ26" s="179"/>
+      <c r="AR26" s="179"/>
+      <c r="AS26" s="179"/>
+      <c r="AT26" s="179"/>
+      <c r="AU26" s="201"/>
+      <c r="AV26" s="201"/>
+      <c r="AW26" s="201"/>
+      <c r="AX26" s="201"/>
+      <c r="AY26" s="201"/>
+      <c r="AZ26" s="201"/>
+      <c r="BA26" s="201"/>
+      <c r="BB26" s="201"/>
+      <c r="BC26" s="201"/>
+      <c r="BD26" s="201"/>
+      <c r="BE26" s="201"/>
+      <c r="BF26" s="202"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="187" t="s">
+      <c r="AO27" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="AP27" s="177"/>
-      <c r="AQ27" s="177"/>
-      <c r="AR27" s="177"/>
-      <c r="AS27" s="177"/>
-      <c r="AT27" s="177"/>
-      <c r="AU27" s="188" t="s">
+      <c r="AP27" s="179"/>
+      <c r="AQ27" s="179"/>
+      <c r="AR27" s="179"/>
+      <c r="AS27" s="179"/>
+      <c r="AT27" s="179"/>
+      <c r="AU27" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="AV27" s="188"/>
-      <c r="AW27" s="188"/>
-      <c r="AX27" s="188"/>
-      <c r="AY27" s="188"/>
-      <c r="AZ27" s="188"/>
-      <c r="BA27" s="188"/>
-      <c r="BB27" s="188"/>
-      <c r="BC27" s="188"/>
-      <c r="BD27" s="188"/>
-      <c r="BE27" s="188"/>
-      <c r="BF27" s="189"/>
+      <c r="AV27" s="201"/>
+      <c r="AW27" s="201"/>
+      <c r="AX27" s="201"/>
+      <c r="AY27" s="201"/>
+      <c r="AZ27" s="201"/>
+      <c r="BA27" s="201"/>
+      <c r="BB27" s="201"/>
+      <c r="BC27" s="201"/>
+      <c r="BD27" s="201"/>
+      <c r="BE27" s="201"/>
+      <c r="BF27" s="202"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="187"/>
-      <c r="AP28" s="177"/>
-      <c r="AQ28" s="177"/>
-      <c r="AR28" s="177"/>
-      <c r="AS28" s="177"/>
-      <c r="AT28" s="177"/>
-      <c r="AU28" s="188"/>
-      <c r="AV28" s="188"/>
-      <c r="AW28" s="188"/>
-      <c r="AX28" s="188"/>
-      <c r="AY28" s="188"/>
-      <c r="AZ28" s="188"/>
-      <c r="BA28" s="188"/>
-      <c r="BB28" s="188"/>
-      <c r="BC28" s="188"/>
-      <c r="BD28" s="188"/>
-      <c r="BE28" s="188"/>
-      <c r="BF28" s="189"/>
+      <c r="AO28" s="200"/>
+      <c r="AP28" s="179"/>
+      <c r="AQ28" s="179"/>
+      <c r="AR28" s="179"/>
+      <c r="AS28" s="179"/>
+      <c r="AT28" s="179"/>
+      <c r="AU28" s="201"/>
+      <c r="AV28" s="201"/>
+      <c r="AW28" s="201"/>
+      <c r="AX28" s="201"/>
+      <c r="AY28" s="201"/>
+      <c r="AZ28" s="201"/>
+      <c r="BA28" s="201"/>
+      <c r="BB28" s="201"/>
+      <c r="BC28" s="201"/>
+      <c r="BD28" s="201"/>
+      <c r="BE28" s="201"/>
+      <c r="BF28" s="202"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="190" t="s">
+      <c r="AO29" s="203" t="s">
         <v>298</v>
       </c>
-      <c r="AP29" s="191"/>
-      <c r="AQ29" s="191"/>
-      <c r="AR29" s="191"/>
-      <c r="AS29" s="191"/>
-      <c r="AT29" s="191"/>
-      <c r="AU29" s="192" t="s">
+      <c r="AP29" s="204"/>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="204"/>
+      <c r="AS29" s="204"/>
+      <c r="AT29" s="204"/>
+      <c r="AU29" s="205" t="s">
         <v>299</v>
       </c>
-      <c r="AV29" s="192"/>
-      <c r="AW29" s="192"/>
-      <c r="AX29" s="192"/>
-      <c r="AY29" s="192"/>
-      <c r="AZ29" s="192"/>
-      <c r="BA29" s="192"/>
-      <c r="BB29" s="192"/>
-      <c r="BC29" s="192"/>
-      <c r="BD29" s="192"/>
-      <c r="BE29" s="192"/>
-      <c r="BF29" s="193"/>
+      <c r="AV29" s="205"/>
+      <c r="AW29" s="205"/>
+      <c r="AX29" s="205"/>
+      <c r="AY29" s="205"/>
+      <c r="AZ29" s="205"/>
+      <c r="BA29" s="205"/>
+      <c r="BB29" s="205"/>
+      <c r="BC29" s="205"/>
+      <c r="BD29" s="205"/>
+      <c r="BE29" s="205"/>
+      <c r="BF29" s="206"/>
     </row>
     <row r="30" spans="1:58" ht="11.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="191"/>
-      <c r="AS30" s="191"/>
-      <c r="AT30" s="191"/>
-      <c r="AU30" s="192"/>
-      <c r="AV30" s="192"/>
-      <c r="AW30" s="192"/>
-      <c r="AX30" s="192"/>
-      <c r="AY30" s="192"/>
-      <c r="AZ30" s="192"/>
-      <c r="BA30" s="192"/>
-      <c r="BB30" s="192"/>
-      <c r="BC30" s="192"/>
-      <c r="BD30" s="192"/>
-      <c r="BE30" s="192"/>
-      <c r="BF30" s="193"/>
+      <c r="AO30" s="203"/>
+      <c r="AP30" s="204"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="204"/>
+      <c r="AS30" s="204"/>
+      <c r="AT30" s="204"/>
+      <c r="AU30" s="205"/>
+      <c r="AV30" s="205"/>
+      <c r="AW30" s="205"/>
+      <c r="AX30" s="205"/>
+      <c r="AY30" s="205"/>
+      <c r="AZ30" s="205"/>
+      <c r="BA30" s="205"/>
+      <c r="BB30" s="205"/>
+      <c r="BC30" s="205"/>
+      <c r="BD30" s="205"/>
+      <c r="BE30" s="205"/>
+      <c r="BF30" s="206"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="190" t="s">
+      <c r="AO31" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="AP31" s="191"/>
-      <c r="AQ31" s="191"/>
-      <c r="AR31" s="191"/>
-      <c r="AS31" s="191"/>
-      <c r="AT31" s="191"/>
-      <c r="AU31" s="192" t="s">
+      <c r="AP31" s="204"/>
+      <c r="AQ31" s="204"/>
+      <c r="AR31" s="204"/>
+      <c r="AS31" s="204"/>
+      <c r="AT31" s="204"/>
+      <c r="AU31" s="205" t="s">
         <v>289</v>
       </c>
-      <c r="AV31" s="192"/>
-      <c r="AW31" s="192"/>
-      <c r="AX31" s="192"/>
-      <c r="AY31" s="192"/>
-      <c r="AZ31" s="192"/>
-      <c r="BA31" s="192"/>
-      <c r="BB31" s="192"/>
-      <c r="BC31" s="192"/>
-      <c r="BD31" s="192"/>
-      <c r="BE31" s="192"/>
-      <c r="BF31" s="193"/>
+      <c r="AV31" s="205"/>
+      <c r="AW31" s="205"/>
+      <c r="AX31" s="205"/>
+      <c r="AY31" s="205"/>
+      <c r="AZ31" s="205"/>
+      <c r="BA31" s="205"/>
+      <c r="BB31" s="205"/>
+      <c r="BC31" s="205"/>
+      <c r="BD31" s="205"/>
+      <c r="BE31" s="205"/>
+      <c r="BF31" s="206"/>
     </row>
     <row r="32" spans="1:58" ht="11.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="190"/>
-      <c r="AP32" s="191"/>
-      <c r="AQ32" s="191"/>
-      <c r="AR32" s="191"/>
-      <c r="AS32" s="191"/>
-      <c r="AT32" s="191"/>
-      <c r="AU32" s="192"/>
-      <c r="AV32" s="192"/>
-      <c r="AW32" s="192"/>
-      <c r="AX32" s="192"/>
-      <c r="AY32" s="192"/>
-      <c r="AZ32" s="192"/>
-      <c r="BA32" s="192"/>
-      <c r="BB32" s="192"/>
-      <c r="BC32" s="192"/>
-      <c r="BD32" s="192"/>
-      <c r="BE32" s="192"/>
-      <c r="BF32" s="193"/>
+      <c r="AO32" s="203"/>
+      <c r="AP32" s="204"/>
+      <c r="AQ32" s="204"/>
+      <c r="AR32" s="204"/>
+      <c r="AS32" s="204"/>
+      <c r="AT32" s="204"/>
+      <c r="AU32" s="205"/>
+      <c r="AV32" s="205"/>
+      <c r="AW32" s="205"/>
+      <c r="AX32" s="205"/>
+      <c r="AY32" s="205"/>
+      <c r="AZ32" s="205"/>
+      <c r="BA32" s="205"/>
+      <c r="BB32" s="205"/>
+      <c r="BC32" s="205"/>
+      <c r="BD32" s="205"/>
+      <c r="BE32" s="205"/>
+      <c r="BF32" s="206"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
@@ -10424,98 +10654,98 @@
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="187" t="s">
+      <c r="AO38" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AP38" s="177"/>
-      <c r="AQ38" s="177"/>
-      <c r="AR38" s="177"/>
-      <c r="AS38" s="177"/>
-      <c r="AT38" s="177"/>
-      <c r="AU38" s="188" t="s">
+      <c r="AP38" s="179"/>
+      <c r="AQ38" s="179"/>
+      <c r="AR38" s="179"/>
+      <c r="AS38" s="179"/>
+      <c r="AT38" s="179"/>
+      <c r="AU38" s="201" t="s">
         <v>242</v>
       </c>
-      <c r="AV38" s="188"/>
-      <c r="AW38" s="188"/>
-      <c r="AX38" s="188"/>
-      <c r="AY38" s="188"/>
-      <c r="AZ38" s="188"/>
-      <c r="BA38" s="188"/>
-      <c r="BB38" s="188"/>
-      <c r="BC38" s="188"/>
-      <c r="BD38" s="188"/>
-      <c r="BE38" s="188"/>
-      <c r="BF38" s="189"/>
+      <c r="AV38" s="201"/>
+      <c r="AW38" s="201"/>
+      <c r="AX38" s="201"/>
+      <c r="AY38" s="201"/>
+      <c r="AZ38" s="201"/>
+      <c r="BA38" s="201"/>
+      <c r="BB38" s="201"/>
+      <c r="BC38" s="201"/>
+      <c r="BD38" s="201"/>
+      <c r="BE38" s="201"/>
+      <c r="BF38" s="202"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="187"/>
-      <c r="AP39" s="177"/>
-      <c r="AQ39" s="177"/>
-      <c r="AR39" s="177"/>
-      <c r="AS39" s="177"/>
-      <c r="AT39" s="177"/>
-      <c r="AU39" s="188"/>
-      <c r="AV39" s="188"/>
-      <c r="AW39" s="188"/>
-      <c r="AX39" s="188"/>
-      <c r="AY39" s="188"/>
-      <c r="AZ39" s="188"/>
-      <c r="BA39" s="188"/>
-      <c r="BB39" s="188"/>
-      <c r="BC39" s="188"/>
-      <c r="BD39" s="188"/>
-      <c r="BE39" s="188"/>
-      <c r="BF39" s="189"/>
+      <c r="AO39" s="200"/>
+      <c r="AP39" s="179"/>
+      <c r="AQ39" s="179"/>
+      <c r="AR39" s="179"/>
+      <c r="AS39" s="179"/>
+      <c r="AT39" s="179"/>
+      <c r="AU39" s="201"/>
+      <c r="AV39" s="201"/>
+      <c r="AW39" s="201"/>
+      <c r="AX39" s="201"/>
+      <c r="AY39" s="201"/>
+      <c r="AZ39" s="201"/>
+      <c r="BA39" s="201"/>
+      <c r="BB39" s="201"/>
+      <c r="BC39" s="201"/>
+      <c r="BD39" s="201"/>
+      <c r="BE39" s="201"/>
+      <c r="BF39" s="202"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
       <c r="AN40" s="3"/>
-      <c r="AO40" s="187" t="s">
+      <c r="AO40" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="AP40" s="177"/>
-      <c r="AQ40" s="177"/>
-      <c r="AR40" s="177"/>
-      <c r="AS40" s="177"/>
-      <c r="AT40" s="177"/>
-      <c r="AU40" s="188" t="s">
+      <c r="AP40" s="179"/>
+      <c r="AQ40" s="179"/>
+      <c r="AR40" s="179"/>
+      <c r="AS40" s="179"/>
+      <c r="AT40" s="179"/>
+      <c r="AU40" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="AV40" s="188"/>
-      <c r="AW40" s="188"/>
-      <c r="AX40" s="188"/>
-      <c r="AY40" s="188"/>
-      <c r="AZ40" s="188"/>
-      <c r="BA40" s="188"/>
-      <c r="BB40" s="188"/>
-      <c r="BC40" s="188"/>
-      <c r="BD40" s="188"/>
-      <c r="BE40" s="188"/>
-      <c r="BF40" s="189"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="201"/>
+      <c r="AZ40" s="201"/>
+      <c r="BA40" s="201"/>
+      <c r="BB40" s="201"/>
+      <c r="BC40" s="201"/>
+      <c r="BD40" s="201"/>
+      <c r="BE40" s="201"/>
+      <c r="BF40" s="202"/>
     </row>
     <row r="41" spans="1:58">
       <c r="A41" s="2"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="187"/>
-      <c r="AP41" s="177"/>
-      <c r="AQ41" s="177"/>
-      <c r="AR41" s="177"/>
-      <c r="AS41" s="177"/>
-      <c r="AT41" s="177"/>
-      <c r="AU41" s="188"/>
-      <c r="AV41" s="188"/>
-      <c r="AW41" s="188"/>
-      <c r="AX41" s="188"/>
-      <c r="AY41" s="188"/>
-      <c r="AZ41" s="188"/>
-      <c r="BA41" s="188"/>
-      <c r="BB41" s="188"/>
-      <c r="BC41" s="188"/>
-      <c r="BD41" s="188"/>
-      <c r="BE41" s="188"/>
-      <c r="BF41" s="189"/>
+      <c r="AO41" s="200"/>
+      <c r="AP41" s="179"/>
+      <c r="AQ41" s="179"/>
+      <c r="AR41" s="179"/>
+      <c r="AS41" s="179"/>
+      <c r="AT41" s="179"/>
+      <c r="AU41" s="201"/>
+      <c r="AV41" s="201"/>
+      <c r="AW41" s="201"/>
+      <c r="AX41" s="201"/>
+      <c r="AY41" s="201"/>
+      <c r="AZ41" s="201"/>
+      <c r="BA41" s="201"/>
+      <c r="BB41" s="201"/>
+      <c r="BC41" s="201"/>
+      <c r="BD41" s="201"/>
+      <c r="BE41" s="201"/>
+      <c r="BF41" s="202"/>
     </row>
     <row r="42" spans="1:58">
       <c r="A42" s="2"/>
@@ -10627,43 +10857,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO25:AT26"/>
-    <mergeCell ref="AU25:BF26"/>
     <mergeCell ref="AO27:AT28"/>
     <mergeCell ref="AU27:BF28"/>
     <mergeCell ref="AO38:AT39"/>
@@ -10674,6 +10867,43 @@
     <mergeCell ref="AU29:BF30"/>
     <mergeCell ref="AO31:AT32"/>
     <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO25:AT26"/>
+    <mergeCell ref="AU25:BF26"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11277,6 +11507,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="K21:Q21"/>
@@ -11293,48 +11565,6 @@
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11658,23 +11888,23 @@
     <row r="15" spans="1:17">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
-      <c r="C15" s="233" t="s">
+      <c r="C15" s="230" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="235"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="231"/>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="232"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="42"/>
@@ -11826,23 +12056,23 @@
     <row r="23" spans="1:17">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
-      <c r="C23" s="233" t="s">
+      <c r="C23" s="230" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="235"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="232"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="42"/>
@@ -11866,44 +12096,44 @@
     <row r="25" spans="1:17">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="230" t="s">
+      <c r="C25" s="233" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="232"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="235"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="230" t="s">
+      <c r="C26" s="233" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="231"/>
-      <c r="O26" s="231"/>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="232"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="235"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="40" t="s">
@@ -11968,6 +12198,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -11981,25 +12230,6 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12436,25 +12666,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="243"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="241" t="s">
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -12464,27 +12694,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="243" t="s">
+      <c r="D2" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="245" t="s">
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="250" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="243"/>
-      <c r="K2" s="244"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -12492,46 +12722,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="P2" s="244"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="249"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="252" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="258"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="249"/>
-      <c r="B4" s="250"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="256"/>
+      <c r="A4" s="254"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="261"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -12572,10 +12802,10 @@
       <c r="K6" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="257" t="s">
+      <c r="L6" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="258"/>
+      <c r="M6" s="263"/>
       <c r="N6" s="143" t="s">
         <v>114</v>
       </c>
@@ -12608,10 +12838,10 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
-      <c r="L7" s="236" t="s">
+      <c r="L7" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="237"/>
+      <c r="M7" s="239"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -12639,10 +12869,10 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
-      <c r="L8" s="236" t="s">
+      <c r="L8" s="238" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="237"/>
+      <c r="M8" s="239"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -12666,10 +12896,10 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
-      <c r="L9" s="236" t="s">
+      <c r="L9" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="237"/>
+      <c r="M9" s="239"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -12697,10 +12927,10 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="236" t="s">
+      <c r="L10" s="238" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="237"/>
+      <c r="M10" s="239"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -12724,10 +12954,10 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="236" t="s">
+      <c r="L11" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="237"/>
+      <c r="M11" s="239"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -12755,10 +12985,10 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="236" t="s">
+      <c r="L12" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="237"/>
+      <c r="M12" s="239"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -12782,10 +13012,10 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="236" t="s">
+      <c r="L13" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="237"/>
+      <c r="M13" s="239"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -12809,10 +13039,10 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="236" t="s">
+      <c r="L14" s="238" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="237"/>
+      <c r="M14" s="239"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -12836,10 +13066,10 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="236" t="s">
+      <c r="L15" s="238" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="237"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -12863,10 +13093,10 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
-      <c r="L16" s="236" t="s">
+      <c r="L16" s="238" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="237"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -12890,10 +13120,10 @@
       <c r="I17" s="106"/>
       <c r="J17" s="105"/>
       <c r="K17" s="105"/>
-      <c r="L17" s="236" t="s">
+      <c r="L17" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="237"/>
+      <c r="M17" s="239"/>
       <c r="N17" s="109"/>
       <c r="O17" s="105"/>
       <c r="P17" s="110"/>
@@ -12917,10 +13147,10 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="105"/>
-      <c r="L18" s="236" t="s">
+      <c r="L18" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="M18" s="237"/>
+      <c r="M18" s="239"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -12944,10 +13174,10 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
-      <c r="L19" s="236" t="s">
+      <c r="L19" s="238" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="237"/>
+      <c r="M19" s="239"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -12971,10 +13201,10 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="105"/>
-      <c r="L20" s="236" t="s">
+      <c r="L20" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="M20" s="237"/>
+      <c r="M20" s="239"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -12998,10 +13228,10 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="105"/>
-      <c r="L21" s="236" t="s">
+      <c r="L21" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="237"/>
+      <c r="M21" s="239"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -13025,10 +13255,10 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="105"/>
-      <c r="L22" s="236" t="s">
+      <c r="L22" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="237"/>
+      <c r="M22" s="239"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -13052,10 +13282,10 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="105"/>
-      <c r="L23" s="261" t="s">
+      <c r="L23" s="240" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="261"/>
+      <c r="M23" s="240"/>
       <c r="N23" s="105" t="s">
         <v>276</v>
       </c>
@@ -13081,10 +13311,10 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
-      <c r="L24" s="261" t="s">
+      <c r="L24" s="240" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="261"/>
+      <c r="M24" s="240"/>
       <c r="N24" s="105"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -13108,10 +13338,10 @@
       <c r="I25" s="106"/>
       <c r="J25" s="105"/>
       <c r="K25" s="105"/>
-      <c r="L25" s="261" t="s">
+      <c r="L25" s="240" t="s">
         <v>153</v>
       </c>
-      <c r="M25" s="261"/>
+      <c r="M25" s="240"/>
       <c r="N25" s="105"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -13135,8 +13365,8 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
-      <c r="L26" s="261"/>
-      <c r="M26" s="261"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="240"/>
       <c r="N26" s="105"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -13160,10 +13390,10 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="141"/>
-      <c r="L27" s="262" t="s">
+      <c r="L27" s="241" t="s">
         <v>269</v>
       </c>
-      <c r="M27" s="263"/>
+      <c r="M27" s="242"/>
       <c r="N27" s="130"/>
       <c r="O27" s="130"/>
       <c r="P27" s="128"/>
@@ -13186,35 +13416,16 @@
       <c r="I28" s="136"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="L28" s="259" t="s">
+      <c r="L28" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="260"/>
+      <c r="M28" s="237"/>
       <c r="N28" s="134"/>
       <c r="O28" s="134"/>
       <c r="P28" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -13228,6 +13439,25 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13801,25 +14031,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="83" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="243"/>
       <c r="C1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="241" t="s">
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
       <c r="L1" s="81" t="s">
         <v>0</v>
       </c>
@@ -13829,27 +14059,27 @@
       <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="243" t="s">
+      <c r="D2" s="248" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="245" t="s">
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="250" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="243"/>
-      <c r="K2" s="244"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="85" t="s">
         <v>4</v>
       </c>
@@ -13859,46 +14089,46 @@
       <c r="N2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="P2" s="244"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="249"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="252" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="258"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="249"/>
-      <c r="B4" s="250"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="256"/>
+      <c r="A4" s="254"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="261"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="89"/>
@@ -13939,10 +14169,10 @@
       <c r="K6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="264" t="s">
+      <c r="L6" s="268" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="265"/>
+      <c r="M6" s="269"/>
       <c r="N6" s="95" t="s">
         <v>114</v>
       </c>
@@ -13975,10 +14205,10 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="266" t="s">
+      <c r="L7" s="270" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="267"/>
+      <c r="M7" s="271"/>
       <c r="N7" s="109"/>
       <c r="O7" s="105"/>
       <c r="P7" s="110"/>
@@ -14005,10 +14235,10 @@
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="109"/>
-      <c r="L8" s="268" t="s">
+      <c r="L8" s="264" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="269"/>
+      <c r="M8" s="265"/>
       <c r="N8" s="109"/>
       <c r="O8" s="105"/>
       <c r="P8" s="110"/>
@@ -14031,10 +14261,10 @@
       <c r="I9" s="106"/>
       <c r="J9" s="105"/>
       <c r="K9" s="109"/>
-      <c r="L9" s="268" t="s">
+      <c r="L9" s="264" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="269"/>
+      <c r="M9" s="265"/>
       <c r="N9" s="109"/>
       <c r="O9" s="105"/>
       <c r="P9" s="110"/>
@@ -14061,10 +14291,10 @@
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="109"/>
-      <c r="L10" s="268">
+      <c r="L10" s="264">
         <v>3</v>
       </c>
-      <c r="M10" s="269"/>
+      <c r="M10" s="265"/>
       <c r="N10" s="109"/>
       <c r="O10" s="105"/>
       <c r="P10" s="110"/>
@@ -14087,10 +14317,10 @@
       <c r="I11" s="106"/>
       <c r="J11" s="105"/>
       <c r="K11" s="109"/>
-      <c r="L11" s="270" t="s">
+      <c r="L11" s="272" t="s">
         <v>272</v>
       </c>
-      <c r="M11" s="271"/>
+      <c r="M11" s="273"/>
       <c r="N11" s="109"/>
       <c r="O11" s="105"/>
       <c r="P11" s="110"/>
@@ -14117,10 +14347,10 @@
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="109"/>
-      <c r="L12" s="268" t="s">
+      <c r="L12" s="264" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="269"/>
+      <c r="M12" s="265"/>
       <c r="N12" s="109"/>
       <c r="O12" s="105"/>
       <c r="P12" s="110"/>
@@ -14143,10 +14373,10 @@
       <c r="I13" s="106"/>
       <c r="J13" s="105"/>
       <c r="K13" s="109"/>
-      <c r="L13" s="236" t="s">
+      <c r="L13" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="M13" s="237"/>
+      <c r="M13" s="239"/>
       <c r="N13" s="109"/>
       <c r="O13" s="105"/>
       <c r="P13" s="110"/>
@@ -14169,10 +14399,10 @@
       <c r="I14" s="106"/>
       <c r="J14" s="105"/>
       <c r="K14" s="109"/>
-      <c r="L14" s="236" t="s">
+      <c r="L14" s="238" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="237"/>
+      <c r="M14" s="239"/>
       <c r="N14" s="109"/>
       <c r="O14" s="105"/>
       <c r="P14" s="110"/>
@@ -14195,10 +14425,10 @@
       <c r="I15" s="106"/>
       <c r="J15" s="105"/>
       <c r="K15" s="109"/>
-      <c r="L15" s="236" t="s">
+      <c r="L15" s="238" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="237"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="109"/>
       <c r="O15" s="105"/>
       <c r="P15" s="110"/>
@@ -14221,10 +14451,10 @@
       <c r="I16" s="106"/>
       <c r="J16" s="105"/>
       <c r="K16" s="109"/>
-      <c r="L16" s="236" t="s">
+      <c r="L16" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="237"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="109"/>
       <c r="O16" s="105"/>
       <c r="P16" s="110"/>
@@ -14247,10 +14477,10 @@
       <c r="I17" s="106"/>
       <c r="J17" s="105"/>
       <c r="K17" s="109"/>
-      <c r="L17" s="236" t="s">
+      <c r="L17" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="M17" s="237"/>
+      <c r="M17" s="239"/>
       <c r="N17" s="109"/>
       <c r="O17" s="105"/>
       <c r="P17" s="110"/>
@@ -14273,10 +14503,10 @@
       <c r="I18" s="106"/>
       <c r="J18" s="105"/>
       <c r="K18" s="109"/>
-      <c r="L18" s="268" t="s">
+      <c r="L18" s="264" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="269"/>
+      <c r="M18" s="265"/>
       <c r="N18" s="109"/>
       <c r="O18" s="105"/>
       <c r="P18" s="110"/>
@@ -14299,10 +14529,10 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="268" t="s">
+      <c r="L19" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="M19" s="269"/>
+      <c r="M19" s="265"/>
       <c r="N19" s="109"/>
       <c r="O19" s="105"/>
       <c r="P19" s="110"/>
@@ -14325,10 +14555,10 @@
       <c r="I20" s="106"/>
       <c r="J20" s="105"/>
       <c r="K20" s="109"/>
-      <c r="L20" s="268" t="s">
+      <c r="L20" s="264" t="s">
         <v>194</v>
       </c>
-      <c r="M20" s="269"/>
+      <c r="M20" s="265"/>
       <c r="N20" s="109"/>
       <c r="O20" s="105"/>
       <c r="P20" s="110"/>
@@ -14351,10 +14581,10 @@
       <c r="I21" s="106"/>
       <c r="J21" s="105"/>
       <c r="K21" s="109"/>
-      <c r="L21" s="268" t="s">
+      <c r="L21" s="264" t="s">
         <v>196</v>
       </c>
-      <c r="M21" s="269"/>
+      <c r="M21" s="265"/>
       <c r="N21" s="109"/>
       <c r="O21" s="105"/>
       <c r="P21" s="110"/>
@@ -14377,10 +14607,10 @@
       <c r="I22" s="106"/>
       <c r="J22" s="105"/>
       <c r="K22" s="109"/>
-      <c r="L22" s="272" t="s">
+      <c r="L22" s="266" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="273"/>
+      <c r="M22" s="267"/>
       <c r="N22" s="109"/>
       <c r="O22" s="105"/>
       <c r="P22" s="110"/>
@@ -14403,10 +14633,10 @@
       <c r="I23" s="106"/>
       <c r="J23" s="105"/>
       <c r="K23" s="109"/>
-      <c r="L23" s="236" t="s">
+      <c r="L23" s="238" t="s">
         <v>199</v>
       </c>
-      <c r="M23" s="237"/>
+      <c r="M23" s="239"/>
       <c r="N23" s="109"/>
       <c r="O23" s="105"/>
       <c r="P23" s="110"/>
@@ -14429,10 +14659,10 @@
       <c r="I24" s="106"/>
       <c r="J24" s="105"/>
       <c r="K24" s="109"/>
-      <c r="L24" s="272" t="s">
+      <c r="L24" s="266" t="s">
         <v>201</v>
       </c>
-      <c r="M24" s="273"/>
+      <c r="M24" s="267"/>
       <c r="N24" s="109"/>
       <c r="O24" s="105"/>
       <c r="P24" s="110"/>
@@ -14455,10 +14685,10 @@
       <c r="I25" s="129"/>
       <c r="J25" s="129"/>
       <c r="K25" s="141"/>
-      <c r="L25" s="262" t="s">
+      <c r="L25" s="241" t="s">
         <v>202</v>
       </c>
-      <c r="M25" s="263"/>
+      <c r="M25" s="242"/>
       <c r="N25" s="130"/>
       <c r="O25" s="105"/>
       <c r="P25" s="110"/>
@@ -14481,10 +14711,10 @@
       <c r="I26" s="106"/>
       <c r="J26" s="105"/>
       <c r="K26" s="109"/>
-      <c r="L26" s="236" t="s">
+      <c r="L26" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="M26" s="237"/>
+      <c r="M26" s="239"/>
       <c r="N26" s="109"/>
       <c r="O26" s="105"/>
       <c r="P26" s="110"/>
@@ -14507,10 +14737,10 @@
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
       <c r="K27" s="141"/>
-      <c r="L27" s="262" t="s">
+      <c r="L27" s="241" t="s">
         <v>205</v>
       </c>
-      <c r="M27" s="263"/>
+      <c r="M27" s="242"/>
       <c r="N27" s="130"/>
       <c r="O27" s="105"/>
       <c r="P27" s="110"/>
@@ -14533,10 +14763,10 @@
       <c r="I28" s="129"/>
       <c r="J28" s="129"/>
       <c r="K28" s="141"/>
-      <c r="L28" s="236" t="s">
+      <c r="L28" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="237"/>
+      <c r="M28" s="239"/>
       <c r="N28" s="130"/>
       <c r="O28" s="105"/>
       <c r="P28" s="110"/>
@@ -14559,10 +14789,10 @@
       <c r="I29" s="106"/>
       <c r="J29" s="105"/>
       <c r="K29" s="109"/>
-      <c r="L29" s="236" t="s">
+      <c r="L29" s="238" t="s">
         <v>185</v>
       </c>
-      <c r="M29" s="237"/>
+      <c r="M29" s="239"/>
       <c r="N29" s="109"/>
       <c r="O29" s="105"/>
       <c r="P29" s="110"/>
@@ -14585,10 +14815,10 @@
       <c r="I30" s="129"/>
       <c r="J30" s="129"/>
       <c r="K30" s="141"/>
-      <c r="L30" s="236" t="s">
+      <c r="L30" s="238" t="s">
         <v>186</v>
       </c>
-      <c r="M30" s="237"/>
+      <c r="M30" s="239"/>
       <c r="N30" s="130" t="s">
         <v>267</v>
       </c>
@@ -14613,10 +14843,10 @@
       <c r="I31" s="129"/>
       <c r="J31" s="129"/>
       <c r="K31" s="141"/>
-      <c r="L31" s="262" t="s">
+      <c r="L31" s="241" t="s">
         <v>207</v>
       </c>
-      <c r="M31" s="263"/>
+      <c r="M31" s="242"/>
       <c r="N31" s="130"/>
       <c r="O31" s="105"/>
       <c r="P31" s="110"/>
@@ -14639,8 +14869,8 @@
       <c r="I32" s="106"/>
       <c r="J32" s="105"/>
       <c r="K32" s="109"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="237"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="239"/>
       <c r="N32" s="105"/>
       <c r="O32" s="105"/>
       <c r="P32" s="110"/>
@@ -14663,10 +14893,10 @@
       <c r="I33" s="129"/>
       <c r="J33" s="129"/>
       <c r="K33" s="141"/>
-      <c r="L33" s="262" t="s">
+      <c r="L33" s="241" t="s">
         <v>269</v>
       </c>
-      <c r="M33" s="263"/>
+      <c r="M33" s="242"/>
       <c r="N33" s="130"/>
       <c r="O33" s="130"/>
       <c r="P33" s="128"/>
@@ -14689,23 +14919,35 @@
       <c r="I34" s="136"/>
       <c r="J34" s="136"/>
       <c r="K34" s="137"/>
-      <c r="L34" s="259" t="s">
+      <c r="L34" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="M34" s="260"/>
+      <c r="M34" s="237"/>
       <c r="N34" s="134"/>
       <c r="O34" s="134"/>
       <c r="P34" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
@@ -14718,25 +14960,13 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
